--- a/academycity/data/training/datasets/excel/upload/112_Period_2_v0.xlsx
+++ b/academycity/data/training/datasets/excel/upload/112_Period_2_v0.xlsx
@@ -4865,6 +4865,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -4938,14 +4946,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
     </font>
@@ -5078,7 +5078,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5259,6 +5259,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5271,7 +5275,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5295,7 +5299,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5304,10 +5308,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5323,11 +5323,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5347,7 +5351,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5355,7 +5359,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5458,8 +5462,8 @@
   </sheetPr>
   <dimension ref="A1:AM551"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A546" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J546" activeCellId="0" sqref="J546:J551"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O:O"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5467,14 +5471,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="56.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.11"/>
@@ -35224,7 +35228,7 @@
       <c r="A255" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B255" s="40" t="n">
+      <c r="B255" s="45" t="n">
         <v>112273</v>
       </c>
       <c r="C255" s="42" t="n">
@@ -38968,7 +38972,7 @@
       <c r="A287" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B287" s="45" t="n">
+      <c r="B287" s="46" t="n">
         <v>112121</v>
       </c>
       <c r="C287" s="41" t="n">
@@ -48940,7 +48944,7 @@
       <c r="F372" s="27" t="s">
         <v>816</v>
       </c>
-      <c r="G372" s="46" t="s">
+      <c r="G372" s="47" t="s">
         <v>937</v>
       </c>
       <c r="H372" s="31" t="s">
@@ -49042,28 +49046,28 @@
       <c r="A373" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B373" s="47" t="n">
+      <c r="B373" s="48" t="n">
         <v>112505</v>
       </c>
       <c r="C373" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D373" s="48" t="s">
+      <c r="D373" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E373" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F373" s="48" t="s">
+      <c r="E373" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F373" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G373" s="48" t="s">
+      <c r="G373" s="49" t="s">
         <v>941</v>
       </c>
-      <c r="H373" s="48" t="s">
+      <c r="H373" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I373" s="49" t="s">
+      <c r="I373" s="50" t="s">
         <v>43</v>
       </c>
       <c r="J373" s="16" t="n">
@@ -49159,28 +49163,28 @@
       <c r="A374" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B374" s="47" t="n">
+      <c r="B374" s="48" t="n">
         <v>112389</v>
       </c>
       <c r="C374" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D374" s="48" t="s">
+      <c r="D374" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E374" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F374" s="48" t="s">
+      <c r="E374" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F374" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G374" s="48" t="s">
+      <c r="G374" s="49" t="s">
         <v>944</v>
       </c>
-      <c r="H374" s="48" t="s">
+      <c r="H374" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I374" s="49" t="s">
+      <c r="I374" s="50" t="s">
         <v>945</v>
       </c>
       <c r="J374" s="16" t="n">
@@ -49276,28 +49280,28 @@
       <c r="A375" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B375" s="47" t="n">
+      <c r="B375" s="48" t="n">
         <v>112421</v>
       </c>
       <c r="C375" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D375" s="48" t="s">
+      <c r="D375" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E375" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F375" s="48" t="s">
+      <c r="E375" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F375" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G375" s="48" t="s">
+      <c r="G375" s="49" t="s">
         <v>948</v>
       </c>
-      <c r="H375" s="48" t="s">
+      <c r="H375" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I375" s="49" t="s">
+      <c r="I375" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J375" s="16" t="n">
@@ -49393,28 +49397,28 @@
       <c r="A376" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B376" s="47" t="n">
+      <c r="B376" s="48" t="n">
         <v>112392</v>
       </c>
       <c r="C376" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="D376" s="48" t="s">
+      <c r="D376" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E376" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F376" s="48" t="s">
+      <c r="E376" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F376" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G376" s="48" t="s">
+      <c r="G376" s="49" t="s">
         <v>952</v>
       </c>
-      <c r="H376" s="48" t="s">
+      <c r="H376" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I376" s="49" t="s">
+      <c r="I376" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J376" s="16" t="n">
@@ -49510,28 +49514,28 @@
       <c r="A377" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B377" s="47" t="n">
+      <c r="B377" s="48" t="n">
         <v>112510</v>
       </c>
       <c r="C377" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="D377" s="48" t="s">
+      <c r="D377" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E377" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F377" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G377" s="48" t="s">
+      <c r="E377" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F377" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G377" s="49" t="s">
         <v>955</v>
       </c>
-      <c r="H377" s="48" t="s">
+      <c r="H377" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I377" s="49" t="s">
+      <c r="I377" s="50" t="s">
         <v>956</v>
       </c>
       <c r="J377" s="16" t="n">
@@ -49627,28 +49631,28 @@
       <c r="A378" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B378" s="47" t="n">
+      <c r="B378" s="48" t="n">
         <v>112363</v>
       </c>
       <c r="C378" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="D378" s="48" t="s">
+      <c r="D378" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E378" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F378" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G378" s="48" t="s">
+      <c r="E378" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F378" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G378" s="49" t="s">
         <v>959</v>
       </c>
-      <c r="H378" s="48" t="s">
+      <c r="H378" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="I378" s="49" t="s">
+      <c r="I378" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J378" s="16" t="n">
@@ -49744,28 +49748,28 @@
       <c r="A379" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B379" s="47" t="n">
+      <c r="B379" s="48" t="n">
         <v>112394</v>
       </c>
       <c r="C379" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="D379" s="48" t="s">
+      <c r="D379" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E379" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F379" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G379" s="48" t="s">
+      <c r="E379" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F379" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G379" s="49" t="s">
         <v>962</v>
       </c>
-      <c r="H379" s="48" t="s">
+      <c r="H379" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I379" s="49" t="s">
+      <c r="I379" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J379" s="16" t="n">
@@ -49861,28 +49865,28 @@
       <c r="A380" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B380" s="47" t="n">
+      <c r="B380" s="48" t="n">
         <v>112507</v>
       </c>
       <c r="C380" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="D380" s="48" t="s">
+      <c r="D380" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E380" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F380" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G380" s="48" t="s">
+      <c r="E380" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F380" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G380" s="49" t="s">
         <v>965</v>
       </c>
-      <c r="H380" s="48" t="s">
+      <c r="H380" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I380" s="49" t="s">
+      <c r="I380" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J380" s="16" t="n">
@@ -49978,28 +49982,28 @@
       <c r="A381" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B381" s="47" t="n">
+      <c r="B381" s="48" t="n">
         <v>112385</v>
       </c>
       <c r="C381" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="D381" s="48" t="s">
+      <c r="D381" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E381" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F381" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G381" s="48" t="s">
+      <c r="E381" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F381" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G381" s="49" t="s">
         <v>968</v>
       </c>
-      <c r="H381" s="48" t="s">
+      <c r="H381" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I381" s="49" t="s">
+      <c r="I381" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J381" s="16" t="n">
@@ -50095,28 +50099,28 @@
       <c r="A382" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B382" s="47" t="n">
+      <c r="B382" s="48" t="n">
         <v>112374</v>
       </c>
       <c r="C382" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="D382" s="48" t="s">
+      <c r="D382" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E382" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F382" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G382" s="48" t="s">
+      <c r="E382" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F382" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G382" s="49" t="s">
         <v>971</v>
       </c>
-      <c r="H382" s="48" t="s">
+      <c r="H382" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I382" s="49" t="s">
+      <c r="I382" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J382" s="16" t="n">
@@ -50212,28 +50216,28 @@
       <c r="A383" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B383" s="47" t="n">
+      <c r="B383" s="48" t="n">
         <v>112490</v>
       </c>
       <c r="C383" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="D383" s="48" t="s">
+      <c r="D383" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E383" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F383" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G383" s="48" t="s">
+      <c r="E383" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F383" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G383" s="49" t="s">
         <v>974</v>
       </c>
-      <c r="H383" s="48" t="s">
+      <c r="H383" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I383" s="49" t="s">
+      <c r="I383" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J383" s="16" t="n">
@@ -50329,28 +50333,28 @@
       <c r="A384" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B384" s="47" t="n">
+      <c r="B384" s="48" t="n">
         <v>112377</v>
       </c>
       <c r="C384" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="D384" s="48" t="s">
+      <c r="D384" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E384" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F384" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G384" s="48" t="s">
+      <c r="E384" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F384" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G384" s="49" t="s">
         <v>977</v>
       </c>
-      <c r="H384" s="48" t="s">
+      <c r="H384" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I384" s="49" t="s">
+      <c r="I384" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J384" s="16" t="n">
@@ -50446,28 +50450,28 @@
       <c r="A385" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B385" s="47" t="n">
+      <c r="B385" s="48" t="n">
         <v>112524</v>
       </c>
       <c r="C385" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="D385" s="48" t="s">
+      <c r="D385" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E385" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F385" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G385" s="48" t="s">
+      <c r="E385" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F385" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G385" s="49" t="s">
         <v>980</v>
       </c>
-      <c r="H385" s="48" t="s">
+      <c r="H385" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I385" s="49" t="s">
+      <c r="I385" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J385" s="16" t="n">
@@ -50563,28 +50567,28 @@
       <c r="A386" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B386" s="47" t="n">
+      <c r="B386" s="48" t="n">
         <v>112406</v>
       </c>
       <c r="C386" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="D386" s="48" t="s">
+      <c r="D386" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E386" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F386" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G386" s="48" t="s">
+      <c r="E386" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F386" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G386" s="49" t="s">
         <v>983</v>
       </c>
-      <c r="H386" s="48" t="s">
+      <c r="H386" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I386" s="49" t="s">
+      <c r="I386" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J386" s="16" t="n">
@@ -50680,28 +50684,28 @@
       <c r="A387" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B387" s="47" t="n">
+      <c r="B387" s="48" t="n">
         <v>112373</v>
       </c>
       <c r="C387" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="D387" s="48" t="s">
+      <c r="D387" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E387" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F387" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G387" s="48" t="s">
+      <c r="E387" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F387" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G387" s="49" t="s">
         <v>986</v>
       </c>
-      <c r="H387" s="48" t="s">
+      <c r="H387" s="49" t="s">
         <v>757</v>
       </c>
-      <c r="I387" s="49" t="s">
+      <c r="I387" s="50" t="s">
         <v>99</v>
       </c>
       <c r="J387" s="16" t="n">
@@ -50797,28 +50801,28 @@
       <c r="A388" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B388" s="47" t="n">
+      <c r="B388" s="48" t="n">
         <v>112486</v>
       </c>
       <c r="C388" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="D388" s="48" t="s">
+      <c r="D388" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E388" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F388" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G388" s="48" t="s">
+      <c r="E388" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F388" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G388" s="49" t="s">
         <v>989</v>
       </c>
-      <c r="H388" s="48" t="s">
+      <c r="H388" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I388" s="49" t="s">
+      <c r="I388" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J388" s="16" t="n">
@@ -50914,28 +50918,28 @@
       <c r="A389" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B389" s="47" t="n">
+      <c r="B389" s="48" t="n">
         <v>112404</v>
       </c>
       <c r="C389" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="D389" s="48" t="s">
+      <c r="D389" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E389" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F389" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G389" s="48" t="s">
+      <c r="E389" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F389" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G389" s="49" t="s">
         <v>992</v>
       </c>
-      <c r="H389" s="48" t="s">
+      <c r="H389" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I389" s="49" t="s">
+      <c r="I389" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J389" s="16" t="n">
@@ -51031,28 +51035,28 @@
       <c r="A390" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B390" s="47" t="n">
+      <c r="B390" s="48" t="n">
         <v>112381</v>
       </c>
       <c r="C390" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="D390" s="48" t="s">
+      <c r="D390" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E390" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F390" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G390" s="49" t="s">
+      <c r="E390" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F390" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G390" s="50" t="s">
         <v>995</v>
       </c>
-      <c r="H390" s="48" t="s">
+      <c r="H390" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I390" s="49" t="s">
+      <c r="I390" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J390" s="16" t="n">
@@ -51148,28 +51152,28 @@
       <c r="A391" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B391" s="47" t="n">
+      <c r="B391" s="48" t="n">
         <v>112418</v>
       </c>
       <c r="C391" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="D391" s="48" t="s">
+      <c r="D391" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E391" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F391" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G391" s="48" t="s">
+      <c r="E391" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F391" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G391" s="49" t="s">
         <v>998</v>
       </c>
-      <c r="H391" s="48" t="s">
+      <c r="H391" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I391" s="49" t="s">
+      <c r="I391" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J391" s="16" t="n">
@@ -51265,28 +51269,28 @@
       <c r="A392" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B392" s="50" t="n">
+      <c r="B392" s="51" t="n">
         <v>112411</v>
       </c>
       <c r="C392" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="D392" s="51" t="s">
+      <c r="D392" s="52" t="s">
         <v>940</v>
       </c>
-      <c r="E392" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F392" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G392" s="52" t="s">
+      <c r="E392" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F392" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G392" s="53" t="s">
         <v>1001</v>
       </c>
-      <c r="H392" s="52" t="s">
+      <c r="H392" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I392" s="53" t="s">
+      <c r="I392" s="54" t="s">
         <v>89</v>
       </c>
       <c r="J392" s="16" t="n">
@@ -51382,28 +51386,28 @@
       <c r="A393" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B393" s="47" t="n">
+      <c r="B393" s="48" t="n">
         <v>112400</v>
       </c>
       <c r="C393" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="D393" s="48" t="s">
+      <c r="D393" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E393" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F393" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G393" s="48" t="s">
+      <c r="E393" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F393" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G393" s="49" t="s">
         <v>1004</v>
       </c>
-      <c r="H393" s="48" t="s">
+      <c r="H393" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I393" s="49" t="s">
+      <c r="I393" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J393" s="16" t="n">
@@ -51499,28 +51503,28 @@
       <c r="A394" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B394" s="47" t="n">
+      <c r="B394" s="48" t="n">
         <v>112391</v>
       </c>
       <c r="C394" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="D394" s="48" t="s">
+      <c r="D394" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E394" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F394" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G394" s="49" t="s">
+      <c r="E394" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F394" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G394" s="50" t="s">
         <v>1007</v>
       </c>
-      <c r="H394" s="48" t="s">
+      <c r="H394" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I394" s="49" t="s">
+      <c r="I394" s="50" t="s">
         <v>1008</v>
       </c>
       <c r="J394" s="16" t="n">
@@ -51616,28 +51620,28 @@
       <c r="A395" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B395" s="47" t="n">
+      <c r="B395" s="48" t="n">
         <v>112295</v>
       </c>
       <c r="C395" s="21" t="n">
         <v>23</v>
       </c>
-      <c r="D395" s="48" t="s">
+      <c r="D395" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E395" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F395" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G395" s="48" t="s">
+      <c r="E395" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F395" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G395" s="49" t="s">
         <v>1011</v>
       </c>
-      <c r="H395" s="48" t="s">
+      <c r="H395" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I395" s="49" t="s">
+      <c r="I395" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J395" s="16" t="n">
@@ -51733,28 +51737,28 @@
       <c r="A396" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B396" s="47" t="n">
+      <c r="B396" s="48" t="n">
         <v>112362</v>
       </c>
       <c r="C396" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="D396" s="48" t="s">
+      <c r="D396" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E396" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F396" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G396" s="48" t="s">
+      <c r="E396" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F396" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G396" s="49" t="s">
         <v>1014</v>
       </c>
-      <c r="H396" s="48" t="s">
+      <c r="H396" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="I396" s="48" t="s">
+      <c r="I396" s="49" t="s">
         <v>147</v>
       </c>
       <c r="J396" s="16" t="n">
@@ -51850,28 +51854,28 @@
       <c r="A397" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B397" s="47" t="n">
+      <c r="B397" s="48" t="n">
         <v>112380</v>
       </c>
       <c r="C397" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="D397" s="48" t="s">
+      <c r="D397" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E397" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F397" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G397" s="49" t="s">
+      <c r="E397" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F397" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G397" s="50" t="s">
         <v>1017</v>
       </c>
-      <c r="H397" s="48" t="s">
+      <c r="H397" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I397" s="49" t="s">
+      <c r="I397" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J397" s="16" t="n">
@@ -51967,28 +51971,28 @@
       <c r="A398" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B398" s="47" t="n">
+      <c r="B398" s="48" t="n">
         <v>112407</v>
       </c>
       <c r="C398" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="D398" s="48" t="s">
+      <c r="D398" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E398" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F398" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G398" s="48" t="s">
+      <c r="E398" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F398" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G398" s="49" t="s">
         <v>1020</v>
       </c>
-      <c r="H398" s="48" t="s">
+      <c r="H398" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I398" s="49" t="s">
+      <c r="I398" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J398" s="16" t="n">
@@ -52084,28 +52088,28 @@
       <c r="A399" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B399" s="47" t="n">
+      <c r="B399" s="48" t="n">
         <v>112446</v>
       </c>
       <c r="C399" s="21" t="n">
         <v>27</v>
       </c>
-      <c r="D399" s="48" t="s">
+      <c r="D399" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E399" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F399" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G399" s="48" t="s">
+      <c r="E399" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F399" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G399" s="49" t="s">
         <v>1023</v>
       </c>
-      <c r="H399" s="48" t="s">
+      <c r="H399" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I399" s="49" t="s">
+      <c r="I399" s="50" t="s">
         <v>99</v>
       </c>
       <c r="J399" s="16" t="n">
@@ -52201,28 +52205,28 @@
       <c r="A400" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B400" s="47" t="n">
+      <c r="B400" s="48" t="n">
         <v>112399</v>
       </c>
       <c r="C400" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="D400" s="48" t="s">
+      <c r="D400" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E400" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F400" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G400" s="48" t="s">
+      <c r="E400" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F400" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G400" s="49" t="s">
         <v>1026</v>
       </c>
-      <c r="H400" s="48" t="s">
+      <c r="H400" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I400" s="49" t="s">
+      <c r="I400" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J400" s="16" t="n">
@@ -52318,28 +52322,28 @@
       <c r="A401" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B401" s="47" t="n">
+      <c r="B401" s="48" t="n">
         <v>112398</v>
       </c>
       <c r="C401" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="D401" s="48" t="s">
+      <c r="D401" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E401" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F401" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G401" s="48" t="s">
+      <c r="E401" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F401" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G401" s="49" t="s">
         <v>1029</v>
       </c>
-      <c r="H401" s="48" t="s">
+      <c r="H401" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I401" s="49" t="s">
+      <c r="I401" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J401" s="16" t="n">
@@ -52435,28 +52439,28 @@
       <c r="A402" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B402" s="47" t="n">
+      <c r="B402" s="48" t="n">
         <v>112367</v>
       </c>
       <c r="C402" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="D402" s="48" t="s">
+      <c r="D402" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E402" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F402" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G402" s="48" t="s">
+      <c r="E402" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F402" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G402" s="49" t="s">
         <v>1032</v>
       </c>
-      <c r="H402" s="48" t="s">
+      <c r="H402" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I402" s="49" t="s">
+      <c r="I402" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J402" s="16" t="n">
@@ -52552,28 +52556,28 @@
       <c r="A403" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B403" s="47" t="n">
+      <c r="B403" s="48" t="n">
         <v>112397</v>
       </c>
       <c r="C403" s="21" t="n">
         <v>31</v>
       </c>
-      <c r="D403" s="48" t="s">
+      <c r="D403" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E403" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F403" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G403" s="48" t="s">
+      <c r="E403" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F403" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G403" s="49" t="s">
         <v>1035</v>
       </c>
-      <c r="H403" s="48" t="s">
+      <c r="H403" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I403" s="49" t="s">
+      <c r="I403" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J403" s="16" t="n">
@@ -52669,28 +52673,28 @@
       <c r="A404" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B404" s="47" t="n">
+      <c r="B404" s="48" t="n">
         <v>112368</v>
       </c>
       <c r="C404" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="D404" s="48" t="s">
+      <c r="D404" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E404" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F404" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G404" s="48" t="s">
+      <c r="E404" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F404" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G404" s="49" t="s">
         <v>1038</v>
       </c>
-      <c r="H404" s="48" t="s">
+      <c r="H404" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I404" s="49" t="s">
+      <c r="I404" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J404" s="16" t="n">
@@ -52786,28 +52790,28 @@
       <c r="A405" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B405" s="47" t="n">
+      <c r="B405" s="48" t="n">
         <v>112384</v>
       </c>
       <c r="C405" s="21" t="n">
         <v>33</v>
       </c>
-      <c r="D405" s="48" t="s">
+      <c r="D405" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E405" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F405" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G405" s="48" t="s">
+      <c r="E405" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F405" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G405" s="49" t="s">
         <v>1041</v>
       </c>
-      <c r="H405" s="48" t="s">
+      <c r="H405" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I405" s="49" t="s">
+      <c r="I405" s="50" t="s">
         <v>198</v>
       </c>
       <c r="J405" s="16" t="n">
@@ -52903,28 +52907,28 @@
       <c r="A406" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B406" s="47" t="n">
+      <c r="B406" s="48" t="n">
         <v>112422</v>
       </c>
       <c r="C406" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="D406" s="48" t="s">
+      <c r="D406" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E406" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F406" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G406" s="48" t="s">
+      <c r="E406" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F406" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G406" s="49" t="s">
         <v>1044</v>
       </c>
-      <c r="H406" s="48" t="s">
+      <c r="H406" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I406" s="49" t="s">
+      <c r="I406" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J406" s="16" t="n">
@@ -53020,28 +53024,28 @@
       <c r="A407" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B407" s="47" t="n">
+      <c r="B407" s="48" t="n">
         <v>112442</v>
       </c>
       <c r="C407" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="D407" s="48" t="s">
+      <c r="D407" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E407" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F407" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G407" s="48" t="s">
+      <c r="E407" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F407" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G407" s="49" t="s">
         <v>1047</v>
       </c>
-      <c r="H407" s="48" t="s">
+      <c r="H407" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I407" s="49" t="s">
+      <c r="I407" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J407" s="16" t="n">
@@ -53137,28 +53141,28 @@
       <c r="A408" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B408" s="47" t="n">
+      <c r="B408" s="48" t="n">
         <v>112370</v>
       </c>
       <c r="C408" s="21" t="n">
         <v>36</v>
       </c>
-      <c r="D408" s="48" t="s">
+      <c r="D408" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E408" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F408" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G408" s="48" t="s">
+      <c r="E408" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F408" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G408" s="49" t="s">
         <v>1050</v>
       </c>
-      <c r="H408" s="48" t="s">
+      <c r="H408" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I408" s="49" t="s">
+      <c r="I408" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J408" s="16" t="n">
@@ -53254,28 +53258,28 @@
       <c r="A409" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B409" s="47" t="n">
+      <c r="B409" s="48" t="n">
         <v>112527</v>
       </c>
       <c r="C409" s="21" t="n">
         <v>37</v>
       </c>
-      <c r="D409" s="48" t="s">
+      <c r="D409" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E409" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F409" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G409" s="48" t="s">
+      <c r="E409" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F409" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G409" s="49" t="s">
         <v>1053</v>
       </c>
-      <c r="H409" s="48" t="s">
+      <c r="H409" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I409" s="48" t="s">
+      <c r="I409" s="49" t="s">
         <v>1054</v>
       </c>
       <c r="J409" s="16" t="n">
@@ -53371,28 +53375,28 @@
       <c r="A410" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B410" s="47" t="n">
+      <c r="B410" s="48" t="n">
         <v>112481</v>
       </c>
       <c r="C410" s="21" t="n">
         <v>38</v>
       </c>
-      <c r="D410" s="48" t="s">
+      <c r="D410" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E410" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F410" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G410" s="48" t="s">
+      <c r="E410" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F410" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G410" s="49" t="s">
         <v>1057</v>
       </c>
-      <c r="H410" s="48" t="s">
+      <c r="H410" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I410" s="49" t="s">
+      <c r="I410" s="50" t="s">
         <v>147</v>
       </c>
       <c r="J410" s="16" t="n">
@@ -53488,28 +53492,28 @@
       <c r="A411" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B411" s="47" t="n">
+      <c r="B411" s="48" t="n">
         <v>112401</v>
       </c>
       <c r="C411" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="D411" s="48" t="s">
+      <c r="D411" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E411" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F411" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G411" s="48" t="s">
+      <c r="E411" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F411" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G411" s="49" t="s">
         <v>1060</v>
       </c>
-      <c r="H411" s="48" t="s">
+      <c r="H411" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I411" s="49" t="s">
+      <c r="I411" s="50" t="s">
         <v>99</v>
       </c>
       <c r="J411" s="16" t="n">
@@ -53605,28 +53609,28 @@
       <c r="A412" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B412" s="47" t="n">
+      <c r="B412" s="48" t="n">
         <v>112379</v>
       </c>
       <c r="C412" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="D412" s="48" t="s">
+      <c r="D412" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E412" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F412" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G412" s="48" t="s">
+      <c r="E412" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F412" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G412" s="49" t="s">
         <v>1063</v>
       </c>
-      <c r="H412" s="48" t="s">
+      <c r="H412" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I412" s="49" t="s">
+      <c r="I412" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J412" s="16" t="n">
@@ -53722,28 +53726,28 @@
       <c r="A413" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B413" s="47" t="n">
+      <c r="B413" s="48" t="n">
         <v>112430</v>
       </c>
       <c r="C413" s="21" t="n">
         <v>41</v>
       </c>
-      <c r="D413" s="48" t="s">
+      <c r="D413" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E413" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F413" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G413" s="48" t="s">
+      <c r="E413" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F413" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G413" s="49" t="s">
         <v>1066</v>
       </c>
-      <c r="H413" s="48" t="s">
+      <c r="H413" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I413" s="49" t="s">
+      <c r="I413" s="50" t="s">
         <v>1067</v>
       </c>
       <c r="J413" s="16" t="n">
@@ -53839,28 +53843,28 @@
       <c r="A414" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B414" s="47" t="n">
+      <c r="B414" s="48" t="n">
         <v>112369</v>
       </c>
       <c r="C414" s="21" t="n">
         <v>42</v>
       </c>
-      <c r="D414" s="48" t="s">
+      <c r="D414" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E414" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F414" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G414" s="48" t="s">
+      <c r="E414" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F414" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G414" s="49" t="s">
         <v>1070</v>
       </c>
-      <c r="H414" s="48" t="s">
+      <c r="H414" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I414" s="49" t="s">
+      <c r="I414" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J414" s="16" t="n">
@@ -53956,28 +53960,28 @@
       <c r="A415" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B415" s="47" t="n">
+      <c r="B415" s="48" t="n">
         <v>112456</v>
       </c>
       <c r="C415" s="21" t="n">
         <v>43</v>
       </c>
-      <c r="D415" s="48" t="s">
+      <c r="D415" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E415" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F415" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G415" s="48" t="s">
+      <c r="E415" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F415" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G415" s="49" t="s">
         <v>1073</v>
       </c>
-      <c r="H415" s="48" t="s">
+      <c r="H415" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I415" s="49" t="s">
+      <c r="I415" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J415" s="16" t="n">
@@ -54073,28 +54077,28 @@
       <c r="A416" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B416" s="47" t="n">
+      <c r="B416" s="48" t="n">
         <v>112413</v>
       </c>
       <c r="C416" s="21" t="n">
         <v>44</v>
       </c>
-      <c r="D416" s="48" t="s">
+      <c r="D416" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E416" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F416" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G416" s="49" t="s">
+      <c r="E416" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F416" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G416" s="50" t="s">
         <v>1076</v>
       </c>
-      <c r="H416" s="48" t="s">
+      <c r="H416" s="49" t="s">
         <v>834</v>
       </c>
-      <c r="I416" s="49" t="s">
+      <c r="I416" s="50" t="s">
         <v>956</v>
       </c>
       <c r="J416" s="16" t="n">
@@ -54190,28 +54194,28 @@
       <c r="A417" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B417" s="47" t="n">
+      <c r="B417" s="48" t="n">
         <v>112424</v>
       </c>
       <c r="C417" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="D417" s="48" t="s">
+      <c r="D417" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E417" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F417" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G417" s="48" t="s">
+      <c r="E417" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F417" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G417" s="49" t="s">
         <v>1079</v>
       </c>
-      <c r="H417" s="48" t="s">
+      <c r="H417" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="I417" s="49" t="s">
+      <c r="I417" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J417" s="16" t="n">
@@ -54307,28 +54311,28 @@
       <c r="A418" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B418" s="47" t="n">
+      <c r="B418" s="48" t="n">
         <v>112376</v>
       </c>
       <c r="C418" s="21" t="n">
         <v>46</v>
       </c>
-      <c r="D418" s="48" t="s">
+      <c r="D418" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E418" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F418" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G418" s="48" t="s">
+      <c r="E418" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F418" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G418" s="49" t="s">
         <v>1082</v>
       </c>
-      <c r="H418" s="48" t="s">
+      <c r="H418" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I418" s="49" t="s">
+      <c r="I418" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J418" s="16" t="n">
@@ -54424,28 +54428,28 @@
       <c r="A419" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B419" s="47" t="n">
+      <c r="B419" s="48" t="n">
         <v>112435</v>
       </c>
       <c r="C419" s="21" t="n">
         <v>47</v>
       </c>
-      <c r="D419" s="48" t="s">
+      <c r="D419" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E419" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F419" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G419" s="48" t="s">
+      <c r="E419" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F419" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G419" s="49" t="s">
         <v>1085</v>
       </c>
-      <c r="H419" s="48" t="s">
+      <c r="H419" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I419" s="49" t="s">
+      <c r="I419" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J419" s="16" t="n">
@@ -54541,28 +54545,28 @@
       <c r="A420" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B420" s="47" t="n">
+      <c r="B420" s="48" t="n">
         <v>112451</v>
       </c>
       <c r="C420" s="21" t="n">
         <v>48</v>
       </c>
-      <c r="D420" s="48" t="s">
+      <c r="D420" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E420" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F420" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G420" s="48" t="s">
+      <c r="E420" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F420" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G420" s="49" t="s">
         <v>1088</v>
       </c>
-      <c r="H420" s="48" t="s">
+      <c r="H420" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="I420" s="49" t="s">
+      <c r="I420" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J420" s="16" t="n">
@@ -54658,28 +54662,28 @@
       <c r="A421" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B421" s="47" t="n">
+      <c r="B421" s="48" t="n">
         <v>112419</v>
       </c>
       <c r="C421" s="21" t="n">
         <v>49</v>
       </c>
-      <c r="D421" s="48" t="s">
+      <c r="D421" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E421" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F421" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G421" s="48" t="s">
+      <c r="E421" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F421" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G421" s="49" t="s">
         <v>1091</v>
       </c>
-      <c r="H421" s="48" t="s">
+      <c r="H421" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I421" s="49" t="s">
+      <c r="I421" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J421" s="16" t="n">
@@ -54775,28 +54779,28 @@
       <c r="A422" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B422" s="47" t="n">
+      <c r="B422" s="48" t="n">
         <v>112417</v>
       </c>
       <c r="C422" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="D422" s="48" t="s">
+      <c r="D422" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E422" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F422" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G422" s="48" t="s">
+      <c r="E422" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F422" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G422" s="49" t="s">
         <v>1094</v>
       </c>
-      <c r="H422" s="48" t="s">
+      <c r="H422" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I422" s="49" t="s">
+      <c r="I422" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J422" s="16" t="n">
@@ -54892,28 +54896,28 @@
       <c r="A423" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B423" s="47" t="n">
+      <c r="B423" s="48" t="n">
         <v>112445</v>
       </c>
       <c r="C423" s="21" t="n">
         <v>51</v>
       </c>
-      <c r="D423" s="48" t="s">
+      <c r="D423" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E423" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F423" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G423" s="48" t="s">
+      <c r="E423" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F423" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G423" s="49" t="s">
         <v>1097</v>
       </c>
-      <c r="H423" s="48" t="s">
+      <c r="H423" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I423" s="49" t="s">
+      <c r="I423" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J423" s="16" t="n">
@@ -55009,28 +55013,28 @@
       <c r="A424" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B424" s="47" t="n">
+      <c r="B424" s="48" t="n">
         <v>112448</v>
       </c>
       <c r="C424" s="21" t="n">
         <v>52</v>
       </c>
-      <c r="D424" s="48" t="s">
+      <c r="D424" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E424" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F424" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G424" s="48" t="s">
+      <c r="E424" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F424" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G424" s="49" t="s">
         <v>1100</v>
       </c>
-      <c r="H424" s="48" t="s">
+      <c r="H424" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I424" s="49" t="s">
+      <c r="I424" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J424" s="16" t="n">
@@ -55126,28 +55130,28 @@
       <c r="A425" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B425" s="47" t="n">
+      <c r="B425" s="48" t="n">
         <v>112353</v>
       </c>
       <c r="C425" s="21" t="n">
         <v>53</v>
       </c>
-      <c r="D425" s="48" t="s">
+      <c r="D425" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E425" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F425" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G425" s="48" t="s">
+      <c r="E425" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F425" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G425" s="49" t="s">
         <v>1103</v>
       </c>
-      <c r="H425" s="48" t="s">
+      <c r="H425" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="I425" s="49" t="s">
+      <c r="I425" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J425" s="16" t="n">
@@ -55243,28 +55247,28 @@
       <c r="A426" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B426" s="47" t="n">
+      <c r="B426" s="48" t="n">
         <v>112452</v>
       </c>
       <c r="C426" s="21" t="n">
         <v>54</v>
       </c>
-      <c r="D426" s="48" t="s">
+      <c r="D426" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E426" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F426" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G426" s="49" t="s">
+      <c r="E426" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F426" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G426" s="50" t="s">
         <v>1106</v>
       </c>
-      <c r="H426" s="48" t="s">
+      <c r="H426" s="49" t="s">
         <v>1107</v>
       </c>
-      <c r="I426" s="49" t="s">
+      <c r="I426" s="50" t="s">
         <v>99</v>
       </c>
       <c r="J426" s="16" t="n">
@@ -55360,28 +55364,28 @@
       <c r="A427" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B427" s="47" t="n">
+      <c r="B427" s="48" t="n">
         <v>112423</v>
       </c>
       <c r="C427" s="21" t="n">
         <v>55</v>
       </c>
-      <c r="D427" s="48" t="s">
+      <c r="D427" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E427" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F427" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G427" s="48" t="s">
+      <c r="E427" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F427" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G427" s="49" t="s">
         <v>1110</v>
       </c>
-      <c r="H427" s="48" t="s">
+      <c r="H427" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="I427" s="49" t="s">
+      <c r="I427" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J427" s="16" t="n">
@@ -55477,28 +55481,28 @@
       <c r="A428" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B428" s="47" t="n">
+      <c r="B428" s="48" t="n">
         <v>112449</v>
       </c>
       <c r="C428" s="21" t="n">
         <v>56</v>
       </c>
-      <c r="D428" s="48" t="s">
+      <c r="D428" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E428" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F428" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G428" s="48" t="s">
+      <c r="E428" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F428" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G428" s="49" t="s">
         <v>1113</v>
       </c>
-      <c r="H428" s="48" t="s">
+      <c r="H428" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I428" s="49" t="s">
+      <c r="I428" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J428" s="16" t="n">
@@ -55594,28 +55598,28 @@
       <c r="A429" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B429" s="47" t="n">
+      <c r="B429" s="48" t="n">
         <v>112426</v>
       </c>
       <c r="C429" s="21" t="n">
         <v>57</v>
       </c>
-      <c r="D429" s="48" t="s">
+      <c r="D429" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E429" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F429" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G429" s="48" t="s">
+      <c r="E429" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F429" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G429" s="49" t="s">
         <v>1116</v>
       </c>
-      <c r="H429" s="48" t="s">
+      <c r="H429" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I429" s="49" t="s">
+      <c r="I429" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J429" s="16" t="n">
@@ -55711,28 +55715,28 @@
       <c r="A430" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B430" s="47" t="n">
+      <c r="B430" s="48" t="n">
         <v>112437</v>
       </c>
       <c r="C430" s="21" t="n">
         <v>58</v>
       </c>
-      <c r="D430" s="48" t="s">
+      <c r="D430" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E430" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F430" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G430" s="48" t="s">
+      <c r="E430" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F430" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G430" s="49" t="s">
         <v>1119</v>
       </c>
-      <c r="H430" s="48" t="s">
+      <c r="H430" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I430" s="49" t="s">
+      <c r="I430" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J430" s="16" t="n">
@@ -55828,28 +55832,28 @@
       <c r="A431" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B431" s="47" t="n">
+      <c r="B431" s="48" t="n">
         <v>112464</v>
       </c>
       <c r="C431" s="21" t="n">
         <v>59</v>
       </c>
-      <c r="D431" s="48" t="s">
+      <c r="D431" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E431" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F431" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G431" s="48" t="s">
+      <c r="E431" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F431" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G431" s="49" t="s">
         <v>1122</v>
       </c>
-      <c r="H431" s="48" t="s">
+      <c r="H431" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I431" s="49" t="s">
+      <c r="I431" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J431" s="16" t="n">
@@ -55945,28 +55949,28 @@
       <c r="A432" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B432" s="47" t="n">
+      <c r="B432" s="48" t="n">
         <v>112454</v>
       </c>
       <c r="C432" s="21" t="n">
         <v>60</v>
       </c>
-      <c r="D432" s="48" t="s">
+      <c r="D432" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E432" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F432" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G432" s="48" t="s">
+      <c r="E432" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F432" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G432" s="49" t="s">
         <v>1125</v>
       </c>
-      <c r="H432" s="48" t="s">
+      <c r="H432" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="I432" s="49" t="s">
+      <c r="I432" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J432" s="16" t="n">
@@ -56062,28 +56066,28 @@
       <c r="A433" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B433" s="47" t="n">
+      <c r="B433" s="48" t="n">
         <v>112427</v>
       </c>
       <c r="C433" s="21" t="n">
         <v>61</v>
       </c>
-      <c r="D433" s="48" t="s">
+      <c r="D433" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E433" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F433" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G433" s="48" t="s">
+      <c r="E433" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F433" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G433" s="49" t="s">
         <v>1128</v>
       </c>
-      <c r="H433" s="48" t="s">
+      <c r="H433" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I433" s="49" t="s">
+      <c r="I433" s="50" t="s">
         <v>1008</v>
       </c>
       <c r="J433" s="16" t="n">
@@ -56179,28 +56183,28 @@
       <c r="A434" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B434" s="47" t="n">
+      <c r="B434" s="48" t="n">
         <v>112455</v>
       </c>
       <c r="C434" s="21" t="n">
         <v>62</v>
       </c>
-      <c r="D434" s="48" t="s">
+      <c r="D434" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E434" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F434" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G434" s="48" t="s">
+      <c r="E434" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F434" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G434" s="49" t="s">
         <v>1131</v>
       </c>
-      <c r="H434" s="48" t="s">
+      <c r="H434" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I434" s="49" t="s">
+      <c r="I434" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J434" s="16" t="n">
@@ -56296,28 +56300,28 @@
       <c r="A435" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B435" s="47" t="n">
+      <c r="B435" s="48" t="n">
         <v>112494</v>
       </c>
       <c r="C435" s="21" t="n">
         <v>63</v>
       </c>
-      <c r="D435" s="48" t="s">
+      <c r="D435" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E435" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F435" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G435" s="48" t="s">
+      <c r="E435" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F435" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G435" s="49" t="s">
         <v>1134</v>
       </c>
-      <c r="H435" s="48" t="s">
+      <c r="H435" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I435" s="49" t="s">
+      <c r="I435" s="50" t="s">
         <v>147</v>
       </c>
       <c r="J435" s="16" t="n">
@@ -56413,28 +56417,28 @@
       <c r="A436" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B436" s="47" t="n">
+      <c r="B436" s="48" t="n">
         <v>112428</v>
       </c>
       <c r="C436" s="21" t="n">
         <v>64</v>
       </c>
-      <c r="D436" s="48" t="s">
+      <c r="D436" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E436" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F436" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G436" s="54" t="s">
+      <c r="E436" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F436" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G436" s="55" t="s">
         <v>1137</v>
       </c>
-      <c r="H436" s="48" t="s">
+      <c r="H436" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I436" s="49" t="s">
+      <c r="I436" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J436" s="16" t="n">
@@ -56530,28 +56534,28 @@
       <c r="A437" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B437" s="47" t="n">
+      <c r="B437" s="48" t="n">
         <v>112439</v>
       </c>
       <c r="C437" s="21" t="n">
         <v>65</v>
       </c>
-      <c r="D437" s="48" t="s">
+      <c r="D437" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E437" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F437" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G437" s="48" t="s">
+      <c r="E437" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F437" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G437" s="49" t="s">
         <v>1140</v>
       </c>
-      <c r="H437" s="48" t="s">
+      <c r="H437" s="49" t="s">
         <v>1107</v>
       </c>
-      <c r="I437" s="49" t="s">
+      <c r="I437" s="50" t="s">
         <v>99</v>
       </c>
       <c r="J437" s="16" t="n">
@@ -56647,28 +56651,28 @@
       <c r="A438" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B438" s="47" t="n">
+      <c r="B438" s="48" t="n">
         <v>112457</v>
       </c>
       <c r="C438" s="21" t="n">
         <v>66</v>
       </c>
-      <c r="D438" s="48" t="s">
+      <c r="D438" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E438" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F438" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G438" s="48" t="s">
+      <c r="E438" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F438" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G438" s="49" t="s">
         <v>1143</v>
       </c>
-      <c r="H438" s="48" t="s">
+      <c r="H438" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I438" s="49" t="s">
+      <c r="I438" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J438" s="16" t="n">
@@ -56764,28 +56768,28 @@
       <c r="A439" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B439" s="47" t="n">
+      <c r="B439" s="48" t="n">
         <v>112433</v>
       </c>
       <c r="C439" s="21" t="n">
         <v>67</v>
       </c>
-      <c r="D439" s="48" t="s">
+      <c r="D439" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E439" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F439" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G439" s="48" t="s">
+      <c r="E439" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F439" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G439" s="49" t="s">
         <v>1146</v>
       </c>
-      <c r="H439" s="48" t="s">
+      <c r="H439" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I439" s="49" t="s">
+      <c r="I439" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J439" s="16" t="n">
@@ -56878,31 +56882,31 @@
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B440" s="47" t="n">
+      <c r="A440" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B440" s="48" t="n">
         <v>112429</v>
       </c>
       <c r="C440" s="21" t="n">
         <v>68</v>
       </c>
-      <c r="D440" s="48" t="s">
+      <c r="D440" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E440" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F440" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G440" s="49" t="s">
+      <c r="E440" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F440" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G440" s="50" t="s">
         <v>1149</v>
       </c>
-      <c r="H440" s="48" t="s">
+      <c r="H440" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I440" s="49" t="s">
+      <c r="I440" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J440" s="16" t="n">
@@ -56998,28 +57002,28 @@
       <c r="A441" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B441" s="47" t="n">
+      <c r="B441" s="48" t="n">
         <v>112450</v>
       </c>
       <c r="C441" s="21" t="n">
         <v>69</v>
       </c>
-      <c r="D441" s="48" t="s">
+      <c r="D441" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E441" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F441" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G441" s="48" t="s">
+      <c r="E441" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F441" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G441" s="49" t="s">
         <v>1152</v>
       </c>
-      <c r="H441" s="48" t="s">
+      <c r="H441" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I441" s="49" t="s">
+      <c r="I441" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J441" s="16" t="n">
@@ -57115,28 +57119,28 @@
       <c r="A442" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B442" s="47" t="n">
+      <c r="B442" s="48" t="n">
         <v>112432</v>
       </c>
       <c r="C442" s="21" t="n">
         <v>70</v>
       </c>
-      <c r="D442" s="48" t="s">
+      <c r="D442" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E442" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F442" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G442" s="48" t="s">
+      <c r="E442" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F442" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G442" s="49" t="s">
         <v>1155</v>
       </c>
-      <c r="H442" s="48" t="s">
+      <c r="H442" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I442" s="49" t="s">
+      <c r="I442" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J442" s="16" t="n">
@@ -57232,28 +57236,28 @@
       <c r="A443" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B443" s="47" t="n">
+      <c r="B443" s="48" t="n">
         <v>112414</v>
       </c>
       <c r="C443" s="21" t="n">
         <v>71</v>
       </c>
-      <c r="D443" s="48" t="s">
+      <c r="D443" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E443" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F443" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G443" s="49" t="s">
+      <c r="E443" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F443" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G443" s="50" t="s">
         <v>1158</v>
       </c>
-      <c r="H443" s="48" t="s">
+      <c r="H443" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I443" s="49" t="s">
+      <c r="I443" s="50" t="s">
         <v>198</v>
       </c>
       <c r="J443" s="16" t="n">
@@ -57349,28 +57353,28 @@
       <c r="A444" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B444" s="47" t="n">
+      <c r="B444" s="48" t="n">
         <v>112438</v>
       </c>
       <c r="C444" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="D444" s="48" t="s">
+      <c r="D444" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E444" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F444" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G444" s="48" t="s">
+      <c r="E444" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F444" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G444" s="49" t="s">
         <v>1161</v>
       </c>
-      <c r="H444" s="48" t="s">
+      <c r="H444" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I444" s="49" t="s">
+      <c r="I444" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J444" s="16" t="n">
@@ -57466,28 +57470,28 @@
       <c r="A445" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B445" s="47" t="n">
+      <c r="B445" s="48" t="n">
         <v>112453</v>
       </c>
       <c r="C445" s="21" t="n">
         <v>73</v>
       </c>
-      <c r="D445" s="48" t="s">
+      <c r="D445" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E445" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F445" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G445" s="48" t="s">
+      <c r="E445" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F445" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G445" s="49" t="s">
         <v>1164</v>
       </c>
-      <c r="H445" s="48" t="s">
+      <c r="H445" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I445" s="49" t="s">
+      <c r="I445" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J445" s="16" t="n">
@@ -57583,28 +57587,28 @@
       <c r="A446" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B446" s="47" t="n">
+      <c r="B446" s="48" t="n">
         <v>112443</v>
       </c>
       <c r="C446" s="21" t="n">
         <v>74</v>
       </c>
-      <c r="D446" s="48" t="s">
+      <c r="D446" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E446" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F446" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G446" s="48" t="s">
+      <c r="E446" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F446" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G446" s="49" t="s">
         <v>1167</v>
       </c>
-      <c r="H446" s="48" t="s">
+      <c r="H446" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I446" s="49" t="s">
+      <c r="I446" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J446" s="16" t="n">
@@ -57700,28 +57704,28 @@
       <c r="A447" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B447" s="47" t="n">
+      <c r="B447" s="48" t="n">
         <v>112415</v>
       </c>
       <c r="C447" s="21" t="n">
         <v>75</v>
       </c>
-      <c r="D447" s="48" t="s">
+      <c r="D447" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E447" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F447" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G447" s="48" t="s">
+      <c r="E447" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F447" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G447" s="49" t="s">
         <v>1170</v>
       </c>
-      <c r="H447" s="48" t="s">
+      <c r="H447" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I447" s="49" t="s">
+      <c r="I447" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J447" s="16" t="n">
@@ -57817,28 +57821,28 @@
       <c r="A448" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B448" s="47" t="n">
+      <c r="B448" s="48" t="n">
         <v>112493</v>
       </c>
       <c r="C448" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="D448" s="48" t="s">
+      <c r="D448" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E448" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F448" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G448" s="48" t="s">
+      <c r="E448" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F448" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G448" s="49" t="s">
         <v>1173</v>
       </c>
-      <c r="H448" s="48" t="s">
+      <c r="H448" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I448" s="49" t="s">
+      <c r="I448" s="50" t="s">
         <v>147</v>
       </c>
       <c r="J448" s="16" t="n">
@@ -57934,28 +57938,28 @@
       <c r="A449" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B449" s="47" t="n">
+      <c r="B449" s="48" t="n">
         <v>112440</v>
       </c>
       <c r="C449" s="21" t="n">
         <v>77</v>
       </c>
-      <c r="D449" s="48" t="s">
+      <c r="D449" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E449" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F449" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G449" s="48" t="s">
+      <c r="E449" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F449" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G449" s="49" t="s">
         <v>1176</v>
       </c>
-      <c r="H449" s="48" t="s">
+      <c r="H449" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I449" s="49" t="s">
+      <c r="I449" s="50" t="s">
         <v>99</v>
       </c>
       <c r="J449" s="16" t="n">
@@ -58051,28 +58055,28 @@
       <c r="A450" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B450" s="47" t="n">
+      <c r="B450" s="48" t="n">
         <v>112444</v>
       </c>
       <c r="C450" s="21" t="n">
         <v>78</v>
       </c>
-      <c r="D450" s="48" t="s">
+      <c r="D450" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E450" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F450" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G450" s="48" t="s">
+      <c r="E450" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F450" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G450" s="49" t="s">
         <v>1179</v>
       </c>
-      <c r="H450" s="48" t="s">
+      <c r="H450" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I450" s="49" t="s">
+      <c r="I450" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J450" s="16" t="n">
@@ -58168,28 +58172,28 @@
       <c r="A451" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B451" s="47" t="n">
+      <c r="B451" s="48" t="n">
         <v>112436</v>
       </c>
       <c r="C451" s="21" t="n">
         <v>79</v>
       </c>
-      <c r="D451" s="48" t="s">
+      <c r="D451" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E451" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F451" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G451" s="48" t="s">
+      <c r="E451" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F451" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G451" s="49" t="s">
         <v>1182</v>
       </c>
-      <c r="H451" s="48" t="s">
+      <c r="H451" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I451" s="49" t="s">
+      <c r="I451" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J451" s="16" t="n">
@@ -58285,28 +58289,28 @@
       <c r="A452" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B452" s="47" t="n">
+      <c r="B452" s="48" t="n">
         <v>112441</v>
       </c>
       <c r="C452" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="D452" s="48" t="s">
+      <c r="D452" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E452" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F452" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G452" s="48" t="s">
+      <c r="E452" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F452" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G452" s="49" t="s">
         <v>1185</v>
       </c>
-      <c r="H452" s="48" t="s">
+      <c r="H452" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I452" s="49" t="s">
+      <c r="I452" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J452" s="16" t="n">
@@ -58402,28 +58406,28 @@
       <c r="A453" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B453" s="47" t="n">
+      <c r="B453" s="48" t="n">
         <v>112434</v>
       </c>
       <c r="C453" s="21" t="n">
         <v>81</v>
       </c>
-      <c r="D453" s="48" t="s">
+      <c r="D453" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E453" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F453" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G453" s="48" t="s">
+      <c r="E453" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F453" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G453" s="49" t="s">
         <v>1188</v>
       </c>
-      <c r="H453" s="48" t="s">
+      <c r="H453" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I453" s="49" t="s">
+      <c r="I453" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J453" s="16" t="n">
@@ -58519,28 +58523,28 @@
       <c r="A454" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B454" s="47" t="n">
+      <c r="B454" s="48" t="n">
         <v>112133</v>
       </c>
       <c r="C454" s="21" t="n">
         <v>82</v>
       </c>
-      <c r="D454" s="48" t="s">
+      <c r="D454" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E454" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F454" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G454" s="48" t="s">
+      <c r="E454" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F454" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G454" s="49" t="s">
         <v>1191</v>
       </c>
-      <c r="H454" s="48" t="s">
+      <c r="H454" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I454" s="49" t="s">
+      <c r="I454" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J454" s="16" t="n">
@@ -58636,28 +58640,28 @@
       <c r="A455" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B455" s="47" t="n">
+      <c r="B455" s="48" t="n">
         <v>112477</v>
       </c>
       <c r="C455" s="21" t="n">
         <v>83</v>
       </c>
-      <c r="D455" s="48" t="s">
+      <c r="D455" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E455" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F455" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G455" s="48" t="s">
+      <c r="E455" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F455" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G455" s="49" t="s">
         <v>1194</v>
       </c>
-      <c r="H455" s="48" t="s">
+      <c r="H455" s="49" t="s">
         <v>834</v>
       </c>
-      <c r="I455" s="49" t="s">
+      <c r="I455" s="50" t="s">
         <v>956</v>
       </c>
       <c r="J455" s="16" t="n">
@@ -58753,28 +58757,28 @@
       <c r="A456" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B456" s="47" t="n">
+      <c r="B456" s="48" t="n">
         <v>112460</v>
       </c>
       <c r="C456" s="21" t="n">
         <v>84</v>
       </c>
-      <c r="D456" s="48" t="s">
+      <c r="D456" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E456" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F456" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G456" s="48" t="s">
+      <c r="E456" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F456" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G456" s="49" t="s">
         <v>1197</v>
       </c>
-      <c r="H456" s="48" t="s">
+      <c r="H456" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="I456" s="49" t="s">
+      <c r="I456" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J456" s="16" t="n">
@@ -58870,28 +58874,28 @@
       <c r="A457" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B457" s="47" t="n">
+      <c r="B457" s="48" t="n">
         <v>112498</v>
       </c>
       <c r="C457" s="21" t="n">
         <v>85</v>
       </c>
-      <c r="D457" s="48" t="s">
+      <c r="D457" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E457" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F457" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G457" s="49" t="s">
+      <c r="E457" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F457" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G457" s="50" t="s">
         <v>1200</v>
       </c>
-      <c r="H457" s="48" t="s">
+      <c r="H457" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I457" s="49" t="s">
+      <c r="I457" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J457" s="16" t="n">
@@ -58987,28 +58991,28 @@
       <c r="A458" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B458" s="47" t="n">
+      <c r="B458" s="48" t="n">
         <v>112469</v>
       </c>
       <c r="C458" s="21" t="n">
         <v>86</v>
       </c>
-      <c r="D458" s="48" t="s">
+      <c r="D458" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E458" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F458" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G458" s="49" t="s">
+      <c r="E458" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F458" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G458" s="50" t="s">
         <v>1203</v>
       </c>
-      <c r="H458" s="48" t="s">
+      <c r="H458" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I458" s="49" t="s">
+      <c r="I458" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J458" s="16" t="n">
@@ -59104,28 +59108,28 @@
       <c r="A459" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B459" s="47" t="n">
+      <c r="B459" s="48" t="n">
         <v>112403</v>
       </c>
       <c r="C459" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="D459" s="48" t="s">
+      <c r="D459" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E459" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F459" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G459" s="48" t="s">
+      <c r="E459" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F459" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G459" s="49" t="s">
         <v>1206</v>
       </c>
-      <c r="H459" s="48" t="s">
+      <c r="H459" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I459" s="49" t="s">
+      <c r="I459" s="50" t="s">
         <v>745</v>
       </c>
       <c r="J459" s="16" t="n">
@@ -59221,28 +59225,28 @@
       <c r="A460" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B460" s="47" t="n">
+      <c r="B460" s="48" t="n">
         <v>112478</v>
       </c>
       <c r="C460" s="21" t="n">
         <v>88</v>
       </c>
-      <c r="D460" s="48" t="s">
+      <c r="D460" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E460" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F460" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G460" s="48" t="s">
+      <c r="E460" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F460" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G460" s="49" t="s">
         <v>1209</v>
       </c>
-      <c r="H460" s="48" t="s">
+      <c r="H460" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="I460" s="49" t="s">
+      <c r="I460" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J460" s="16" t="n">
@@ -59338,28 +59342,28 @@
       <c r="A461" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B461" s="47" t="n">
+      <c r="B461" s="48" t="n">
         <v>112463</v>
       </c>
       <c r="C461" s="21" t="n">
         <v>89</v>
       </c>
-      <c r="D461" s="48" t="s">
+      <c r="D461" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E461" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F461" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G461" s="48" t="s">
+      <c r="E461" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F461" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G461" s="49" t="s">
         <v>1212</v>
       </c>
-      <c r="H461" s="48" t="s">
+      <c r="H461" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I461" s="49" t="s">
+      <c r="I461" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J461" s="16" t="n">
@@ -59455,28 +59459,28 @@
       <c r="A462" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B462" s="47" t="n">
+      <c r="B462" s="48" t="n">
         <v>112501</v>
       </c>
       <c r="C462" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="D462" s="48" t="s">
+      <c r="D462" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E462" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F462" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G462" s="48" t="s">
+      <c r="E462" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F462" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G462" s="49" t="s">
         <v>1215</v>
       </c>
-      <c r="H462" s="48" t="s">
+      <c r="H462" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I462" s="49" t="s">
+      <c r="I462" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J462" s="16" t="n">
@@ -59572,28 +59576,28 @@
       <c r="A463" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B463" s="47" t="n">
+      <c r="B463" s="48" t="n">
         <v>112500</v>
       </c>
       <c r="C463" s="21" t="n">
         <v>91</v>
       </c>
-      <c r="D463" s="48" t="s">
+      <c r="D463" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E463" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F463" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G463" s="48" t="s">
+      <c r="E463" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F463" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G463" s="49" t="s">
         <v>1218</v>
       </c>
-      <c r="H463" s="48" t="s">
+      <c r="H463" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I463" s="49" t="s">
+      <c r="I463" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J463" s="16" t="n">
@@ -59689,28 +59693,28 @@
       <c r="A464" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B464" s="47" t="n">
+      <c r="B464" s="48" t="n">
         <v>112496</v>
       </c>
       <c r="C464" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="D464" s="48" t="s">
+      <c r="D464" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E464" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F464" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G464" s="49" t="s">
+      <c r="E464" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F464" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G464" s="50" t="s">
         <v>1221</v>
       </c>
-      <c r="H464" s="48" t="s">
+      <c r="H464" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I464" s="49" t="s">
+      <c r="I464" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J464" s="16" t="n">
@@ -59806,28 +59810,28 @@
       <c r="A465" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B465" s="47" t="n">
+      <c r="B465" s="48" t="n">
         <v>112474</v>
       </c>
       <c r="C465" s="21" t="n">
         <v>93</v>
       </c>
-      <c r="D465" s="48" t="s">
+      <c r="D465" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E465" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F465" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G465" s="48" t="s">
+      <c r="E465" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F465" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G465" s="49" t="s">
         <v>1224</v>
       </c>
-      <c r="H465" s="48" t="s">
+      <c r="H465" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I465" s="49" t="s">
+      <c r="I465" s="50" t="s">
         <v>147</v>
       </c>
       <c r="J465" s="16" t="n">
@@ -59923,28 +59927,28 @@
       <c r="A466" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B466" s="47" t="n">
+      <c r="B466" s="48" t="n">
         <v>112479</v>
       </c>
       <c r="C466" s="21" t="n">
         <v>94</v>
       </c>
-      <c r="D466" s="48" t="s">
+      <c r="D466" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E466" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F466" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G466" s="48" t="s">
+      <c r="E466" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F466" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G466" s="49" t="s">
         <v>1227</v>
       </c>
-      <c r="H466" s="48" t="s">
+      <c r="H466" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I466" s="49" t="s">
+      <c r="I466" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J466" s="16" t="n">
@@ -60040,28 +60044,28 @@
       <c r="A467" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B467" s="47" t="n">
+      <c r="B467" s="48" t="n">
         <v>112473</v>
       </c>
       <c r="C467" s="21" t="n">
         <v>95</v>
       </c>
-      <c r="D467" s="48" t="s">
+      <c r="D467" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E467" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F467" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G467" s="48" t="s">
+      <c r="E467" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F467" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G467" s="49" t="s">
         <v>1230</v>
       </c>
-      <c r="H467" s="48" t="s">
+      <c r="H467" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I467" s="49" t="s">
+      <c r="I467" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J467" s="16" t="n">
@@ -60157,28 +60161,28 @@
       <c r="A468" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B468" s="47" t="n">
+      <c r="B468" s="48" t="n">
         <v>112383</v>
       </c>
       <c r="C468" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="D468" s="48" t="s">
+      <c r="D468" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E468" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F468" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G468" s="48" t="s">
+      <c r="E468" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F468" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G468" s="49" t="s">
         <v>1233</v>
       </c>
-      <c r="H468" s="48" t="s">
+      <c r="H468" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I468" s="49" t="s">
+      <c r="I468" s="50" t="s">
         <v>745</v>
       </c>
       <c r="J468" s="16" t="n">
@@ -60274,28 +60278,28 @@
       <c r="A469" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B469" s="47" t="n">
+      <c r="B469" s="48" t="n">
         <v>112484</v>
       </c>
       <c r="C469" s="21" t="n">
         <v>97</v>
       </c>
-      <c r="D469" s="48" t="s">
+      <c r="D469" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E469" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F469" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G469" s="48" t="s">
+      <c r="E469" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F469" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G469" s="49" t="s">
         <v>1236</v>
       </c>
-      <c r="H469" s="48" t="s">
+      <c r="H469" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I469" s="49" t="s">
+      <c r="I469" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J469" s="16" t="n">
@@ -60391,28 +60395,28 @@
       <c r="A470" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B470" s="47" t="n">
+      <c r="B470" s="48" t="n">
         <v>112462</v>
       </c>
       <c r="C470" s="21" t="n">
         <v>98</v>
       </c>
-      <c r="D470" s="48" t="s">
+      <c r="D470" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E470" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F470" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G470" s="48" t="s">
+      <c r="E470" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F470" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G470" s="49" t="s">
         <v>1239</v>
       </c>
-      <c r="H470" s="48" t="s">
+      <c r="H470" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I470" s="49" t="s">
+      <c r="I470" s="50" t="s">
         <v>1240</v>
       </c>
       <c r="J470" s="16" t="n">
@@ -60508,28 +60512,28 @@
       <c r="A471" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B471" s="47" t="n">
+      <c r="B471" s="48" t="n">
         <v>112492</v>
       </c>
       <c r="C471" s="21" t="n">
         <v>99</v>
       </c>
-      <c r="D471" s="48" t="s">
+      <c r="D471" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E471" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F471" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G471" s="48" t="s">
+      <c r="E471" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F471" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G471" s="49" t="s">
         <v>1243</v>
       </c>
-      <c r="H471" s="48" t="s">
+      <c r="H471" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I471" s="49" t="s">
+      <c r="I471" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J471" s="16" t="n">
@@ -60625,28 +60629,28 @@
       <c r="A472" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B472" s="47" t="n">
+      <c r="B472" s="48" t="n">
         <v>112476</v>
       </c>
       <c r="C472" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D472" s="48" t="s">
+      <c r="D472" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E472" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F472" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G472" s="48" t="s">
+      <c r="E472" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F472" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G472" s="49" t="s">
         <v>1246</v>
       </c>
-      <c r="H472" s="48" t="s">
+      <c r="H472" s="49" t="s">
         <v>1247</v>
       </c>
-      <c r="I472" s="49" t="s">
+      <c r="I472" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J472" s="16" t="n">
@@ -60742,28 +60746,28 @@
       <c r="A473" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B473" s="47" t="n">
+      <c r="B473" s="48" t="n">
         <v>112475</v>
       </c>
       <c r="C473" s="21" t="n">
         <v>101</v>
       </c>
-      <c r="D473" s="48" t="s">
+      <c r="D473" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E473" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F473" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G473" s="48" t="s">
+      <c r="E473" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F473" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G473" s="49" t="s">
         <v>1250</v>
       </c>
-      <c r="H473" s="48" t="s">
+      <c r="H473" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I473" s="49" t="s">
+      <c r="I473" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J473" s="16" t="n">
@@ -60859,28 +60863,28 @@
       <c r="A474" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B474" s="47" t="n">
+      <c r="B474" s="48" t="n">
         <v>112461</v>
       </c>
       <c r="C474" s="21" t="n">
         <v>102</v>
       </c>
-      <c r="D474" s="48" t="s">
+      <c r="D474" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E474" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F474" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G474" s="48" t="s">
+      <c r="E474" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F474" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G474" s="49" t="s">
         <v>1253</v>
       </c>
-      <c r="H474" s="48" t="s">
+      <c r="H474" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I474" s="49" t="s">
+      <c r="I474" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J474" s="16" t="n">
@@ -60976,28 +60980,28 @@
       <c r="A475" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B475" s="47" t="n">
+      <c r="B475" s="48" t="n">
         <v>112465</v>
       </c>
       <c r="C475" s="21" t="n">
         <v>103</v>
       </c>
-      <c r="D475" s="48" t="s">
+      <c r="D475" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E475" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F475" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G475" s="48" t="s">
+      <c r="E475" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F475" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G475" s="49" t="s">
         <v>1256</v>
       </c>
-      <c r="H475" s="48" t="s">
+      <c r="H475" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I475" s="49" t="s">
+      <c r="I475" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J475" s="16" t="n">
@@ -61093,28 +61097,28 @@
       <c r="A476" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B476" s="47" t="n">
+      <c r="B476" s="48" t="n">
         <v>112495</v>
       </c>
       <c r="C476" s="21" t="n">
         <v>104</v>
       </c>
-      <c r="D476" s="48" t="s">
+      <c r="D476" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E476" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F476" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G476" s="48" t="s">
+      <c r="E476" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F476" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G476" s="49" t="s">
         <v>1259</v>
       </c>
-      <c r="H476" s="48" t="s">
+      <c r="H476" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I476" s="49" t="s">
+      <c r="I476" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J476" s="16" t="n">
@@ -61210,28 +61214,28 @@
       <c r="A477" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B477" s="47" t="n">
+      <c r="B477" s="48" t="n">
         <v>112470</v>
       </c>
       <c r="C477" s="21" t="n">
         <v>105</v>
       </c>
-      <c r="D477" s="48" t="s">
+      <c r="D477" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E477" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F477" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G477" s="49" t="s">
+      <c r="E477" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F477" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G477" s="50" t="s">
         <v>1262</v>
       </c>
-      <c r="H477" s="48" t="s">
+      <c r="H477" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="I477" s="49" t="s">
+      <c r="I477" s="50" t="s">
         <v>198</v>
       </c>
       <c r="J477" s="16" t="n">
@@ -61327,28 +61331,28 @@
       <c r="A478" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B478" s="47" t="n">
+      <c r="B478" s="48" t="n">
         <v>112488</v>
       </c>
       <c r="C478" s="21" t="n">
         <v>106</v>
       </c>
-      <c r="D478" s="48" t="s">
+      <c r="D478" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E478" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F478" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G478" s="48" t="s">
+      <c r="E478" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F478" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G478" s="49" t="s">
         <v>1265</v>
       </c>
-      <c r="H478" s="48" t="s">
+      <c r="H478" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I478" s="49" t="s">
+      <c r="I478" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J478" s="16" t="n">
@@ -61444,28 +61448,28 @@
       <c r="A479" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B479" s="47" t="n">
+      <c r="B479" s="48" t="n">
         <v>112483</v>
       </c>
       <c r="C479" s="21" t="n">
         <v>107</v>
       </c>
-      <c r="D479" s="48" t="s">
+      <c r="D479" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E479" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F479" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G479" s="48" t="s">
+      <c r="E479" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F479" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G479" s="49" t="s">
         <v>1268</v>
       </c>
-      <c r="H479" s="48" t="s">
+      <c r="H479" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I479" s="49" t="s">
+      <c r="I479" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J479" s="16" t="n">
@@ -61561,28 +61565,28 @@
       <c r="A480" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B480" s="47" t="n">
+      <c r="B480" s="48" t="n">
         <v>112489</v>
       </c>
       <c r="C480" s="21" t="n">
         <v>108</v>
       </c>
-      <c r="D480" s="48" t="s">
+      <c r="D480" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E480" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F480" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G480" s="48" t="s">
+      <c r="E480" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F480" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G480" s="49" t="s">
         <v>1271</v>
       </c>
-      <c r="H480" s="48" t="s">
+      <c r="H480" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I480" s="49" t="s">
+      <c r="I480" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J480" s="16" t="n">
@@ -61678,28 +61682,28 @@
       <c r="A481" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B481" s="47" t="n">
+      <c r="B481" s="48" t="n">
         <v>112420</v>
       </c>
       <c r="C481" s="21" t="n">
         <v>109</v>
       </c>
-      <c r="D481" s="48" t="s">
+      <c r="D481" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E481" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F481" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G481" s="48" t="s">
+      <c r="E481" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F481" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G481" s="49" t="s">
         <v>1274</v>
       </c>
-      <c r="H481" s="48" t="s">
+      <c r="H481" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I481" s="49" t="s">
+      <c r="I481" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J481" s="16" t="n">
@@ -61795,28 +61799,28 @@
       <c r="A482" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B482" s="47" t="n">
+      <c r="B482" s="48" t="n">
         <v>112503</v>
       </c>
       <c r="C482" s="21" t="n">
         <v>110</v>
       </c>
-      <c r="D482" s="48" t="s">
+      <c r="D482" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E482" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F482" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G482" s="48" t="s">
+      <c r="E482" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F482" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G482" s="49" t="s">
         <v>1277</v>
       </c>
-      <c r="H482" s="48" t="s">
+      <c r="H482" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I482" s="49" t="s">
+      <c r="I482" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J482" s="16" t="n">
@@ -61912,28 +61916,28 @@
       <c r="A483" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B483" s="47" t="n">
+      <c r="B483" s="48" t="n">
         <v>112491</v>
       </c>
       <c r="C483" s="21" t="n">
         <v>111</v>
       </c>
-      <c r="D483" s="48" t="s">
+      <c r="D483" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E483" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F483" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G483" s="48" t="s">
+      <c r="E483" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F483" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G483" s="49" t="s">
         <v>1280</v>
       </c>
-      <c r="H483" s="48" t="s">
+      <c r="H483" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I483" s="49" t="s">
+      <c r="I483" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J483" s="16" t="n">
@@ -62029,28 +62033,28 @@
       <c r="A484" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B484" s="47" t="n">
+      <c r="B484" s="48" t="n">
         <v>112497</v>
       </c>
       <c r="C484" s="21" t="n">
         <v>112</v>
       </c>
-      <c r="D484" s="48" t="s">
+      <c r="D484" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E484" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F484" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G484" s="49" t="s">
+      <c r="E484" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F484" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G484" s="50" t="s">
         <v>1283</v>
       </c>
-      <c r="H484" s="48" t="s">
+      <c r="H484" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I484" s="49" t="s">
+      <c r="I484" s="50" t="s">
         <v>669</v>
       </c>
       <c r="J484" s="16" t="n">
@@ -62146,28 +62150,28 @@
       <c r="A485" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B485" s="47" t="n">
+      <c r="B485" s="48" t="n">
         <v>112458</v>
       </c>
       <c r="C485" s="21" t="n">
         <v>113</v>
       </c>
-      <c r="D485" s="48" t="s">
+      <c r="D485" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E485" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F485" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G485" s="48" t="s">
+      <c r="E485" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F485" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G485" s="49" t="s">
         <v>1286</v>
       </c>
-      <c r="H485" s="48" t="s">
+      <c r="H485" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I485" s="49" t="s">
+      <c r="I485" s="50" t="s">
         <v>745</v>
       </c>
       <c r="J485" s="16" t="n">
@@ -62263,28 +62267,28 @@
       <c r="A486" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B486" s="47" t="n">
+      <c r="B486" s="48" t="n">
         <v>112539</v>
       </c>
       <c r="C486" s="21" t="n">
         <v>114</v>
       </c>
-      <c r="D486" s="48" t="s">
+      <c r="D486" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E486" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F486" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G486" s="48" t="s">
+      <c r="E486" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F486" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G486" s="49" t="s">
         <v>1289</v>
       </c>
-      <c r="H486" s="48" t="s">
+      <c r="H486" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I486" s="49" t="s">
+      <c r="I486" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J486" s="16" t="n">
@@ -62380,28 +62384,28 @@
       <c r="A487" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B487" s="47" t="n">
+      <c r="B487" s="48" t="n">
         <v>112482</v>
       </c>
       <c r="C487" s="21" t="n">
         <v>115</v>
       </c>
-      <c r="D487" s="48" t="s">
+      <c r="D487" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E487" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F487" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G487" s="48" t="s">
+      <c r="E487" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F487" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G487" s="49" t="s">
         <v>1292</v>
       </c>
-      <c r="H487" s="48" t="s">
+      <c r="H487" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I487" s="49" t="s">
+      <c r="I487" s="50" t="s">
         <v>147</v>
       </c>
       <c r="J487" s="16" t="n">
@@ -62497,28 +62501,28 @@
       <c r="A488" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B488" s="47" t="n">
+      <c r="B488" s="48" t="n">
         <v>112459</v>
       </c>
       <c r="C488" s="21" t="n">
         <v>116</v>
       </c>
-      <c r="D488" s="48" t="s">
+      <c r="D488" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E488" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F488" s="48" t="n">
+      <c r="E488" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F488" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G488" s="48" t="s">
+      <c r="G488" s="49" t="s">
         <v>1295</v>
       </c>
-      <c r="H488" s="48" t="s">
+      <c r="H488" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I488" s="49" t="s">
+      <c r="I488" s="50" t="s">
         <v>956</v>
       </c>
       <c r="J488" s="16" t="n">
@@ -62614,28 +62618,28 @@
       <c r="A489" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B489" s="47" t="n">
+      <c r="B489" s="48" t="n">
         <v>112518</v>
       </c>
       <c r="C489" s="21" t="n">
         <v>117</v>
       </c>
-      <c r="D489" s="48" t="s">
+      <c r="D489" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E489" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F489" s="48" t="n">
+      <c r="E489" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F489" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G489" s="48" t="s">
+      <c r="G489" s="49" t="s">
         <v>1298</v>
       </c>
-      <c r="H489" s="48" t="s">
+      <c r="H489" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I489" s="49" t="s">
+      <c r="I489" s="50" t="s">
         <v>198</v>
       </c>
       <c r="J489" s="16" t="n">
@@ -62731,28 +62735,28 @@
       <c r="A490" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B490" s="47" t="n">
+      <c r="B490" s="48" t="n">
         <v>112387</v>
       </c>
       <c r="C490" s="21" t="n">
         <v>118</v>
       </c>
-      <c r="D490" s="48" t="s">
+      <c r="D490" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E490" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F490" s="48" t="n">
+      <c r="E490" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F490" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G490" s="48" t="s">
+      <c r="G490" s="49" t="s">
         <v>1301</v>
       </c>
-      <c r="H490" s="48" t="s">
+      <c r="H490" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I490" s="49" t="s">
+      <c r="I490" s="50" t="s">
         <v>1302</v>
       </c>
       <c r="J490" s="16" t="n">
@@ -62848,28 +62852,28 @@
       <c r="A491" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B491" s="47" t="n">
+      <c r="B491" s="48" t="n">
         <v>112395</v>
       </c>
       <c r="C491" s="21" t="n">
         <v>119</v>
       </c>
-      <c r="D491" s="48" t="s">
+      <c r="D491" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E491" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F491" s="48" t="n">
+      <c r="E491" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F491" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G491" s="48" t="s">
+      <c r="G491" s="49" t="s">
         <v>1305</v>
       </c>
-      <c r="H491" s="48" t="s">
+      <c r="H491" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I491" s="49" t="s">
+      <c r="I491" s="50" t="s">
         <v>1302</v>
       </c>
       <c r="J491" s="16" t="n">
@@ -62965,28 +62969,28 @@
       <c r="A492" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B492" s="47" t="n">
+      <c r="B492" s="48" t="n">
         <v>112390</v>
       </c>
       <c r="C492" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="D492" s="48" t="s">
+      <c r="D492" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E492" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F492" s="48" t="n">
+      <c r="E492" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F492" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G492" s="48" t="s">
+      <c r="G492" s="49" t="s">
         <v>1308</v>
       </c>
-      <c r="H492" s="48" t="s">
+      <c r="H492" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I492" s="49" t="s">
+      <c r="I492" s="50" t="s">
         <v>1302</v>
       </c>
       <c r="J492" s="16" t="n">
@@ -63082,28 +63086,28 @@
       <c r="A493" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B493" s="47" t="n">
+      <c r="B493" s="48" t="n">
         <v>112382</v>
       </c>
       <c r="C493" s="21" t="n">
         <v>121</v>
       </c>
-      <c r="D493" s="48" t="s">
+      <c r="D493" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E493" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F493" s="48" t="n">
+      <c r="E493" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F493" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G493" s="48" t="s">
+      <c r="G493" s="49" t="s">
         <v>1311</v>
       </c>
-      <c r="H493" s="48" t="s">
+      <c r="H493" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I493" s="49" t="s">
+      <c r="I493" s="50" t="s">
         <v>1302</v>
       </c>
       <c r="J493" s="16" t="n">
@@ -63199,28 +63203,28 @@
       <c r="A494" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B494" s="47" t="n">
+      <c r="B494" s="48" t="n">
         <v>112378</v>
       </c>
       <c r="C494" s="21" t="n">
         <v>122</v>
       </c>
-      <c r="D494" s="48" t="s">
+      <c r="D494" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E494" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F494" s="48" t="n">
+      <c r="E494" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F494" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G494" s="48" t="s">
+      <c r="G494" s="49" t="s">
         <v>1314</v>
       </c>
-      <c r="H494" s="48" t="s">
+      <c r="H494" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I494" s="49" t="s">
+      <c r="I494" s="50" t="s">
         <v>1302</v>
       </c>
       <c r="J494" s="16" t="n">
@@ -63316,28 +63320,28 @@
       <c r="A495" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B495" s="47" t="n">
+      <c r="B495" s="48" t="n">
         <v>112388</v>
       </c>
       <c r="C495" s="21" t="n">
         <v>123</v>
       </c>
-      <c r="D495" s="48" t="s">
+      <c r="D495" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E495" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F495" s="48" t="n">
+      <c r="E495" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F495" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G495" s="48" t="s">
+      <c r="G495" s="49" t="s">
         <v>1317</v>
       </c>
-      <c r="H495" s="48" t="s">
+      <c r="H495" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I495" s="49" t="s">
+      <c r="I495" s="50" t="s">
         <v>1302</v>
       </c>
       <c r="J495" s="16" t="n">
@@ -63433,28 +63437,28 @@
       <c r="A496" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B496" s="47" t="n">
+      <c r="B496" s="48" t="n">
         <v>112522</v>
       </c>
       <c r="C496" s="21" t="n">
         <v>124</v>
       </c>
-      <c r="D496" s="48" t="s">
+      <c r="D496" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E496" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F496" s="48" t="n">
+      <c r="E496" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F496" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G496" s="48" t="s">
+      <c r="G496" s="49" t="s">
         <v>1320</v>
       </c>
-      <c r="H496" s="48" t="s">
+      <c r="H496" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I496" s="49" t="s">
+      <c r="I496" s="50" t="s">
         <v>1321</v>
       </c>
       <c r="J496" s="16" t="n">
@@ -63550,28 +63554,28 @@
       <c r="A497" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B497" s="47" t="n">
+      <c r="B497" s="48" t="n">
         <v>112386</v>
       </c>
       <c r="C497" s="21" t="n">
         <v>125</v>
       </c>
-      <c r="D497" s="48" t="s">
+      <c r="D497" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E497" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F497" s="48" t="n">
+      <c r="E497" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F497" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G497" s="48" t="s">
+      <c r="G497" s="49" t="s">
         <v>1324</v>
       </c>
-      <c r="H497" s="48" t="s">
+      <c r="H497" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I497" s="49" t="s">
+      <c r="I497" s="50" t="s">
         <v>1325</v>
       </c>
       <c r="J497" s="16" t="n">
@@ -63667,28 +63671,28 @@
       <c r="A498" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B498" s="47" t="n">
+      <c r="B498" s="48" t="n">
         <v>112502</v>
       </c>
       <c r="C498" s="21" t="n">
         <v>126</v>
       </c>
-      <c r="D498" s="48" t="s">
+      <c r="D498" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E498" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F498" s="48" t="n">
+      <c r="E498" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F498" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G498" s="48" t="s">
+      <c r="G498" s="49" t="s">
         <v>1328</v>
       </c>
-      <c r="H498" s="48" t="s">
+      <c r="H498" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I498" s="49" t="s">
+      <c r="I498" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J498" s="16" t="n">
@@ -63784,28 +63788,28 @@
       <c r="A499" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B499" s="47" t="n">
+      <c r="B499" s="48" t="n">
         <v>112371</v>
       </c>
       <c r="C499" s="21" t="n">
         <v>127</v>
       </c>
-      <c r="D499" s="48" t="s">
+      <c r="D499" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E499" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F499" s="48" t="n">
+      <c r="E499" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F499" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G499" s="48" t="s">
+      <c r="G499" s="49" t="s">
         <v>1331</v>
       </c>
-      <c r="H499" s="48" t="s">
+      <c r="H499" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I499" s="49" t="s">
+      <c r="I499" s="50" t="s">
         <v>949</v>
       </c>
       <c r="J499" s="16" t="n">
@@ -63901,28 +63905,28 @@
       <c r="A500" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B500" s="47" t="n">
+      <c r="B500" s="48" t="n">
         <v>112416</v>
       </c>
       <c r="C500" s="21" t="n">
         <v>128</v>
       </c>
-      <c r="D500" s="48" t="s">
+      <c r="D500" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E500" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F500" s="48" t="n">
+      <c r="E500" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F500" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G500" s="48" t="s">
+      <c r="G500" s="49" t="s">
         <v>1334</v>
       </c>
-      <c r="H500" s="48" t="s">
+      <c r="H500" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I500" s="49" t="s">
+      <c r="I500" s="50" t="s">
         <v>1335</v>
       </c>
       <c r="J500" s="16" t="n">
@@ -64018,28 +64022,28 @@
       <c r="A501" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B501" s="47" t="n">
+      <c r="B501" s="48" t="n">
         <v>112468</v>
       </c>
       <c r="C501" s="21" t="n">
         <v>129</v>
       </c>
-      <c r="D501" s="48" t="s">
+      <c r="D501" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E501" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F501" s="48" t="n">
+      <c r="E501" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F501" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G501" s="48" t="s">
+      <c r="G501" s="49" t="s">
         <v>1338</v>
       </c>
-      <c r="H501" s="48" t="s">
+      <c r="H501" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I501" s="49" t="s">
+      <c r="I501" s="50" t="s">
         <v>147</v>
       </c>
       <c r="J501" s="16" t="n">
@@ -64135,28 +64139,28 @@
       <c r="A502" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B502" s="47" t="n">
+      <c r="B502" s="48" t="n">
         <v>112375</v>
       </c>
       <c r="C502" s="21" t="n">
         <v>130</v>
       </c>
-      <c r="D502" s="48" t="s">
+      <c r="D502" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E502" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F502" s="48" t="n">
+      <c r="E502" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F502" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G502" s="48" t="s">
+      <c r="G502" s="49" t="s">
         <v>1341</v>
       </c>
-      <c r="H502" s="48" t="s">
+      <c r="H502" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I502" s="49" t="s">
+      <c r="I502" s="50" t="s">
         <v>1335</v>
       </c>
       <c r="J502" s="16" t="n">
@@ -64249,31 +64253,31 @@
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B503" s="47" t="n">
+      <c r="A503" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B503" s="48" t="n">
         <v>112531</v>
       </c>
       <c r="C503" s="21" t="n">
         <v>131</v>
       </c>
-      <c r="D503" s="48" t="s">
+      <c r="D503" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E503" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F503" s="48" t="n">
+      <c r="E503" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F503" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G503" s="49" t="s">
+      <c r="G503" s="50" t="s">
         <v>1344</v>
       </c>
-      <c r="H503" s="48" t="s">
+      <c r="H503" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I503" s="49" t="s">
+      <c r="I503" s="50" t="s">
         <v>1335</v>
       </c>
       <c r="J503" s="16" t="n">
@@ -64366,31 +64370,31 @@
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B504" s="48" t="n">
+      <c r="A504" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B504" s="49" t="n">
         <v>112348</v>
       </c>
       <c r="C504" s="21" t="n">
         <v>132</v>
       </c>
-      <c r="D504" s="48" t="s">
+      <c r="D504" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E504" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F504" s="48" t="n">
+      <c r="E504" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F504" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G504" s="49" t="s">
+      <c r="G504" s="50" t="s">
         <v>1347</v>
       </c>
-      <c r="H504" s="48" t="s">
+      <c r="H504" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I504" s="48" t="s">
+      <c r="I504" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J504" s="16" t="n">
@@ -64486,28 +64490,28 @@
       <c r="A505" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B505" s="47" t="n">
+      <c r="B505" s="48" t="n">
         <v>112471</v>
       </c>
       <c r="C505" s="21" t="n">
         <v>133</v>
       </c>
-      <c r="D505" s="48" t="s">
+      <c r="D505" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E505" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F505" s="48" t="n">
+      <c r="E505" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F505" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G505" s="49" t="s">
+      <c r="G505" s="50" t="s">
         <v>1348</v>
       </c>
-      <c r="H505" s="48" t="s">
+      <c r="H505" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I505" s="49" t="s">
+      <c r="I505" s="50" t="s">
         <v>1349</v>
       </c>
       <c r="J505" s="16" t="n">
@@ -64603,28 +64607,28 @@
       <c r="A506" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B506" s="47" t="n">
+      <c r="B506" s="48" t="n">
         <v>112319</v>
       </c>
       <c r="C506" s="21" t="n">
         <v>134</v>
       </c>
-      <c r="D506" s="48" t="s">
+      <c r="D506" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E506" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F506" s="48" t="n">
+      <c r="E506" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F506" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G506" s="48" t="s">
+      <c r="G506" s="49" t="s">
         <v>1352</v>
       </c>
-      <c r="H506" s="48" t="s">
+      <c r="H506" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I506" s="49" t="s">
+      <c r="I506" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J506" s="16" t="n">
@@ -64720,28 +64724,28 @@
       <c r="A507" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B507" s="47" t="n">
+      <c r="B507" s="48" t="n">
         <v>112447</v>
       </c>
       <c r="C507" s="21" t="n">
         <v>135</v>
       </c>
-      <c r="D507" s="48" t="s">
+      <c r="D507" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E507" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F507" s="48" t="n">
+      <c r="E507" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F507" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G507" s="48" t="s">
+      <c r="G507" s="49" t="s">
         <v>1355</v>
       </c>
-      <c r="H507" s="48" t="s">
+      <c r="H507" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I507" s="49" t="s">
+      <c r="I507" s="50" t="s">
         <v>557</v>
       </c>
       <c r="J507" s="16" t="n">
@@ -64834,31 +64838,31 @@
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B508" s="47" t="n">
+      <c r="A508" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B508" s="48" t="n">
         <v>112409</v>
       </c>
       <c r="C508" s="21" t="n">
         <v>136</v>
       </c>
-      <c r="D508" s="48" t="s">
+      <c r="D508" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E508" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F508" s="48" t="n">
+      <c r="E508" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F508" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G508" s="49" t="s">
+      <c r="G508" s="50" t="s">
         <v>1358</v>
       </c>
-      <c r="H508" s="48" t="s">
+      <c r="H508" s="49" t="s">
         <v>1359</v>
       </c>
-      <c r="I508" s="49" t="s">
+      <c r="I508" s="50" t="s">
         <v>653</v>
       </c>
       <c r="J508" s="16" t="n">
@@ -64954,28 +64958,28 @@
       <c r="A509" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B509" s="47" t="n">
+      <c r="B509" s="48" t="n">
         <v>112408</v>
       </c>
       <c r="C509" s="21" t="n">
         <v>137</v>
       </c>
-      <c r="D509" s="48" t="s">
+      <c r="D509" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E509" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F509" s="48" t="n">
+      <c r="E509" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F509" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G509" s="49" t="s">
+      <c r="G509" s="50" t="s">
         <v>1362</v>
       </c>
-      <c r="H509" s="48" t="s">
+      <c r="H509" s="49" t="s">
         <v>1359</v>
       </c>
-      <c r="I509" s="49" t="s">
+      <c r="I509" s="50" t="s">
         <v>147</v>
       </c>
       <c r="J509" s="16" t="n">
@@ -65071,28 +65075,28 @@
       <c r="A510" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B510" s="47" t="n">
+      <c r="B510" s="48" t="n">
         <v>112480</v>
       </c>
       <c r="C510" s="21" t="n">
         <v>138</v>
       </c>
-      <c r="D510" s="48" t="s">
+      <c r="D510" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E510" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F510" s="48" t="n">
+      <c r="E510" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F510" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G510" s="48" t="s">
+      <c r="G510" s="49" t="s">
         <v>1365</v>
       </c>
-      <c r="H510" s="48" t="s">
+      <c r="H510" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I510" s="49" t="s">
+      <c r="I510" s="50" t="s">
         <v>59</v>
       </c>
       <c r="J510" s="16" t="n">
@@ -65188,28 +65192,28 @@
       <c r="A511" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B511" s="47" t="n">
+      <c r="B511" s="48" t="n">
         <v>112425</v>
       </c>
       <c r="C511" s="21" t="n">
         <v>139</v>
       </c>
-      <c r="D511" s="48" t="s">
+      <c r="D511" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E511" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F511" s="48" t="n">
+      <c r="E511" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F511" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="G511" s="48" t="s">
+      <c r="G511" s="49" t="s">
         <v>1368</v>
       </c>
-      <c r="H511" s="48" t="s">
+      <c r="H511" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I511" s="49" t="s">
+      <c r="I511" s="50" t="s">
         <v>814</v>
       </c>
       <c r="J511" s="16" t="n">
@@ -65320,13 +65324,13 @@
       <c r="F512" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G512" s="56" t="s">
+      <c r="G512" s="57" t="s">
         <v>1372</v>
       </c>
-      <c r="H512" s="56" t="s">
+      <c r="H512" s="57" t="s">
         <v>834</v>
       </c>
-      <c r="I512" s="57" t="s">
+      <c r="I512" s="58" t="s">
         <v>956</v>
       </c>
       <c r="J512" s="16" t="n">
@@ -65437,13 +65441,13 @@
       <c r="F513" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G513" s="56" t="s">
+      <c r="G513" s="57" t="s">
         <v>1375</v>
       </c>
-      <c r="H513" s="58" t="s">
+      <c r="H513" s="59" t="s">
         <v>1376</v>
       </c>
-      <c r="I513" s="59" t="s">
+      <c r="I513" s="60" t="s">
         <v>198</v>
       </c>
       <c r="J513" s="16" t="n">
@@ -65554,13 +65558,13 @@
       <c r="F514" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G514" s="56" t="s">
+      <c r="G514" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="H514" s="58" t="s">
+      <c r="H514" s="59" t="s">
         <v>1380</v>
       </c>
-      <c r="I514" s="57" t="s">
+      <c r="I514" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J514" s="16" t="n">
@@ -65671,13 +65675,13 @@
       <c r="F515" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G515" s="56" t="s">
+      <c r="G515" s="57" t="s">
         <v>1383</v>
       </c>
-      <c r="H515" s="58" t="s">
+      <c r="H515" s="59" t="s">
         <v>1380</v>
       </c>
-      <c r="I515" s="57" t="s">
+      <c r="I515" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J515" s="16" t="n">
@@ -65788,13 +65792,13 @@
       <c r="F516" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G516" s="56" t="s">
+      <c r="G516" s="57" t="s">
         <v>1386</v>
       </c>
-      <c r="H516" s="58" t="s">
+      <c r="H516" s="59" t="s">
         <v>1380</v>
       </c>
-      <c r="I516" s="57" t="s">
+      <c r="I516" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J516" s="16" t="n">
@@ -65905,13 +65909,13 @@
       <c r="F517" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G517" s="56" t="s">
+      <c r="G517" s="57" t="s">
         <v>1389</v>
       </c>
-      <c r="H517" s="56" t="s">
+      <c r="H517" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I517" s="57" t="s">
+      <c r="I517" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J517" s="16" t="n">
@@ -66022,13 +66026,13 @@
       <c r="F518" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G518" s="58" t="s">
+      <c r="G518" s="59" t="s">
         <v>1392</v>
       </c>
-      <c r="H518" s="58" t="s">
+      <c r="H518" s="59" t="s">
         <v>1376</v>
       </c>
-      <c r="I518" s="57" t="s">
+      <c r="I518" s="58" t="s">
         <v>1393</v>
       </c>
       <c r="J518" s="16" t="n">
@@ -66139,13 +66143,13 @@
       <c r="F519" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G519" s="56" t="s">
+      <c r="G519" s="57" t="s">
         <v>1396</v>
       </c>
-      <c r="H519" s="60" t="s">
+      <c r="H519" s="61" t="s">
         <v>1397</v>
       </c>
-      <c r="I519" s="57" t="s">
+      <c r="I519" s="58" t="s">
         <v>1398</v>
       </c>
       <c r="J519" s="16" t="n">
@@ -66256,13 +66260,13 @@
       <c r="F520" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G520" s="56" t="s">
+      <c r="G520" s="57" t="s">
         <v>1401</v>
       </c>
-      <c r="H520" s="60" t="s">
+      <c r="H520" s="61" t="s">
         <v>1397</v>
       </c>
-      <c r="I520" s="57" t="s">
+      <c r="I520" s="58" t="s">
         <v>1402</v>
       </c>
       <c r="J520" s="16" t="n">
@@ -66373,13 +66377,13 @@
       <c r="F521" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G521" s="56" t="s">
+      <c r="G521" s="57" t="s">
         <v>1405</v>
       </c>
-      <c r="H521" s="60" t="s">
+      <c r="H521" s="61" t="s">
         <v>1397</v>
       </c>
-      <c r="I521" s="57" t="s">
+      <c r="I521" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J521" s="16" t="n">
@@ -66490,13 +66494,13 @@
       <c r="F522" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G522" s="56" t="s">
+      <c r="G522" s="57" t="s">
         <v>1408</v>
       </c>
-      <c r="H522" s="60" t="s">
+      <c r="H522" s="61" t="s">
         <v>1397</v>
       </c>
-      <c r="I522" s="57" t="s">
+      <c r="I522" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J522" s="16" t="n">
@@ -66607,13 +66611,13 @@
       <c r="F523" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G523" s="56" t="s">
+      <c r="G523" s="57" t="s">
         <v>1411</v>
       </c>
-      <c r="H523" s="60" t="s">
+      <c r="H523" s="61" t="s">
         <v>1397</v>
       </c>
-      <c r="I523" s="57" t="s">
+      <c r="I523" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J523" s="16" t="n">
@@ -66724,13 +66728,13 @@
       <c r="F524" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G524" s="56" t="s">
+      <c r="G524" s="57" t="s">
         <v>1414</v>
       </c>
-      <c r="H524" s="56" t="s">
+      <c r="H524" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I524" s="57" t="s">
+      <c r="I524" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J524" s="16" t="n">
@@ -66841,13 +66845,13 @@
       <c r="F525" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G525" s="56" t="s">
+      <c r="G525" s="57" t="s">
         <v>1417</v>
       </c>
-      <c r="H525" s="57" t="s">
+      <c r="H525" s="58" t="s">
         <v>1418</v>
       </c>
-      <c r="I525" s="57" t="s">
+      <c r="I525" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J525" s="16" t="n">
@@ -66958,13 +66962,13 @@
       <c r="F526" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G526" s="56" t="s">
+      <c r="G526" s="57" t="s">
         <v>1421</v>
       </c>
-      <c r="H526" s="57" t="s">
+      <c r="H526" s="58" t="s">
         <v>1418</v>
       </c>
-      <c r="I526" s="57" t="s">
+      <c r="I526" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J526" s="16" t="n">
@@ -67075,13 +67079,13 @@
       <c r="F527" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G527" s="56" t="s">
+      <c r="G527" s="57" t="s">
         <v>1424</v>
       </c>
-      <c r="H527" s="57" t="s">
+      <c r="H527" s="58" t="s">
         <v>1418</v>
       </c>
-      <c r="I527" s="57" t="s">
+      <c r="I527" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J527" s="16" t="n">
@@ -67192,13 +67196,13 @@
       <c r="F528" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G528" s="56" t="s">
+      <c r="G528" s="57" t="s">
         <v>1427</v>
       </c>
-      <c r="H528" s="57" t="s">
+      <c r="H528" s="58" t="s">
         <v>1418</v>
       </c>
-      <c r="I528" s="57" t="s">
+      <c r="I528" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J528" s="16" t="n">
@@ -67309,13 +67313,13 @@
       <c r="F529" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G529" s="61" t="s">
+      <c r="G529" s="62" t="s">
         <v>1430</v>
       </c>
-      <c r="H529" s="57" t="s">
+      <c r="H529" s="58" t="s">
         <v>1418</v>
       </c>
-      <c r="I529" s="57" t="s">
+      <c r="I529" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J529" s="16" t="n">
@@ -67426,13 +67430,13 @@
       <c r="F530" s="28" t="s">
         <v>1371</v>
       </c>
-      <c r="G530" s="56" t="s">
+      <c r="G530" s="57" t="s">
         <v>1433</v>
       </c>
-      <c r="H530" s="56" t="s">
+      <c r="H530" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="I530" s="57" t="s">
+      <c r="I530" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J530" s="16" t="n">
@@ -67543,13 +67547,13 @@
       <c r="F531" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="G531" s="56" t="s">
+      <c r="G531" s="57" t="s">
         <v>1436</v>
       </c>
-      <c r="H531" s="56" t="s">
+      <c r="H531" s="57" t="s">
         <v>1437</v>
       </c>
-      <c r="I531" s="56" t="s">
+      <c r="I531" s="57" t="s">
         <v>43</v>
       </c>
       <c r="J531" s="16" t="n">
@@ -67660,13 +67664,13 @@
       <c r="F532" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="G532" s="56" t="s">
+      <c r="G532" s="57" t="s">
         <v>1440</v>
       </c>
-      <c r="H532" s="56" t="s">
+      <c r="H532" s="57" t="s">
         <v>834</v>
       </c>
-      <c r="I532" s="57" t="s">
+      <c r="I532" s="58" t="s">
         <v>1441</v>
       </c>
       <c r="J532" s="16" t="n">
@@ -67777,13 +67781,13 @@
       <c r="F533" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="G533" s="56" t="s">
+      <c r="G533" s="57" t="s">
         <v>1444</v>
       </c>
-      <c r="H533" s="56" t="s">
+      <c r="H533" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I533" s="56" t="s">
+      <c r="I533" s="57" t="s">
         <v>1445</v>
       </c>
       <c r="J533" s="16" t="n">
@@ -67894,13 +67898,13 @@
       <c r="F534" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="G534" s="56" t="s">
+      <c r="G534" s="57" t="s">
         <v>1448</v>
       </c>
-      <c r="H534" s="56" t="s">
+      <c r="H534" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="I534" s="62" t="s">
+      <c r="I534" s="63" t="s">
         <v>949</v>
       </c>
       <c r="J534" s="16" t="n">
@@ -68011,13 +68015,13 @@
       <c r="F535" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G535" s="56" t="s">
+      <c r="G535" s="57" t="s">
         <v>1452</v>
       </c>
-      <c r="H535" s="56" t="s">
+      <c r="H535" s="57" t="s">
         <v>1453</v>
       </c>
-      <c r="I535" s="57" t="s">
+      <c r="I535" s="58" t="s">
         <v>1454</v>
       </c>
       <c r="J535" s="16" t="n">
@@ -68128,13 +68132,13 @@
       <c r="F536" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G536" s="58" t="s">
+      <c r="G536" s="59" t="s">
         <v>1457</v>
       </c>
-      <c r="H536" s="56" t="s">
+      <c r="H536" s="57" t="s">
         <v>1458</v>
       </c>
-      <c r="I536" s="57" t="s">
+      <c r="I536" s="58" t="s">
         <v>1459</v>
       </c>
       <c r="J536" s="16" t="n">
@@ -68245,13 +68249,13 @@
       <c r="F537" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G537" s="58" t="s">
+      <c r="G537" s="59" t="s">
         <v>1462</v>
       </c>
-      <c r="H537" s="56" t="s">
+      <c r="H537" s="57" t="s">
         <v>1463</v>
       </c>
-      <c r="I537" s="57" t="s">
+      <c r="I537" s="58" t="s">
         <v>1464</v>
       </c>
       <c r="J537" s="16" t="n">
@@ -68362,13 +68366,13 @@
       <c r="F538" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G538" s="56" t="s">
+      <c r="G538" s="57" t="s">
         <v>1467</v>
       </c>
-      <c r="H538" s="56" t="s">
+      <c r="H538" s="57" t="s">
         <v>1458</v>
       </c>
-      <c r="I538" s="57" t="s">
+      <c r="I538" s="58" t="s">
         <v>1468</v>
       </c>
       <c r="J538" s="16" t="n">
@@ -68461,7 +68465,7 @@
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="55" t="n">
+      <c r="A539" s="56" t="n">
         <v>1</v>
       </c>
       <c r="B539" s="28" t="n">
@@ -68479,13 +68483,13 @@
       <c r="F539" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G539" s="57" t="s">
+      <c r="G539" s="58" t="s">
         <v>1471</v>
       </c>
-      <c r="H539" s="57" t="s">
+      <c r="H539" s="58" t="s">
         <v>1472</v>
       </c>
-      <c r="I539" s="57" t="s">
+      <c r="I539" s="58" t="s">
         <v>1473</v>
       </c>
       <c r="J539" s="16" t="n">
@@ -68596,13 +68600,13 @@
       <c r="F540" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G540" s="56" t="s">
+      <c r="G540" s="57" t="s">
         <v>1476</v>
       </c>
-      <c r="H540" s="56" t="s">
+      <c r="H540" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I540" s="57" t="s">
+      <c r="I540" s="58" t="s">
         <v>147</v>
       </c>
       <c r="J540" s="16" t="n">
@@ -68713,13 +68717,13 @@
       <c r="F541" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G541" s="56" t="s">
+      <c r="G541" s="57" t="s">
         <v>1479</v>
       </c>
-      <c r="H541" s="56" t="s">
+      <c r="H541" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I541" s="62" t="s">
+      <c r="I541" s="63" t="s">
         <v>949</v>
       </c>
       <c r="J541" s="16" t="n">
@@ -68830,13 +68834,13 @@
       <c r="F542" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G542" s="56" t="s">
+      <c r="G542" s="57" t="s">
         <v>1482</v>
       </c>
-      <c r="H542" s="58" t="s">
+      <c r="H542" s="59" t="s">
         <v>1483</v>
       </c>
-      <c r="I542" s="62" t="s">
+      <c r="I542" s="63" t="s">
         <v>949</v>
       </c>
       <c r="J542" s="16" t="n">
@@ -68947,13 +68951,13 @@
       <c r="F543" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G543" s="56" t="s">
+      <c r="G543" s="57" t="s">
         <v>1486</v>
       </c>
-      <c r="H543" s="56" t="s">
+      <c r="H543" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="I543" s="62" t="s">
+      <c r="I543" s="63" t="s">
         <v>949</v>
       </c>
       <c r="J543" s="16" t="n">
@@ -69064,13 +69068,13 @@
       <c r="F544" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G544" s="56" t="s">
+      <c r="G544" s="57" t="s">
         <v>1488</v>
       </c>
-      <c r="H544" s="56" t="s">
+      <c r="H544" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I544" s="57" t="s">
+      <c r="I544" s="58" t="s">
         <v>1489</v>
       </c>
       <c r="J544" s="16" t="n">
@@ -69181,13 +69185,13 @@
       <c r="F545" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G545" s="58" t="s">
+      <c r="G545" s="59" t="s">
         <v>1492</v>
       </c>
-      <c r="H545" s="56" t="s">
+      <c r="H545" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I545" s="57" t="s">
+      <c r="I545" s="58" t="s">
         <v>1489</v>
       </c>
       <c r="J545" s="16" t="n">
@@ -69298,13 +69302,13 @@
       <c r="F546" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G546" s="56" t="s">
+      <c r="G546" s="57" t="s">
         <v>1495</v>
       </c>
-      <c r="H546" s="56" t="s">
+      <c r="H546" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I546" s="57" t="s">
+      <c r="I546" s="58" t="s">
         <v>89</v>
       </c>
       <c r="J546" s="16" t="n">
@@ -69415,13 +69419,13 @@
       <c r="F547" s="28" t="s">
         <v>1451</v>
       </c>
-      <c r="G547" s="56" t="s">
+      <c r="G547" s="57" t="s">
         <v>1498</v>
       </c>
-      <c r="H547" s="56" t="s">
+      <c r="H547" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I547" s="57" t="s">
+      <c r="I547" s="58" t="s">
         <v>89</v>
       </c>
       <c r="J547" s="16" t="n">
@@ -69514,23 +69518,25 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B548" s="64" t="n">
+      <c r="A548" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B548" s="65" t="n">
         <v>112149</v>
       </c>
-      <c r="C548" s="64"/>
-      <c r="D548" s="65" t="s">
+      <c r="C548" s="65" t="n">
+        <v>600</v>
+      </c>
+      <c r="D548" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E548" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F548" s="64" t="n">
+      <c r="E548" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F548" s="65" t="n">
         <v>4</v>
       </c>
-      <c r="G548" s="65" t="s">
+      <c r="G548" s="66" t="s">
         <v>1501</v>
       </c>
       <c r="H548" s="17" t="s">
@@ -69555,7 +69561,7 @@
       <c r="O548" s="17" t="s">
         <v>1503</v>
       </c>
-      <c r="Q548" s="67" t="n">
+      <c r="Q548" s="68" t="n">
         <v>1</v>
       </c>
       <c r="R548" s="7" t="n">
@@ -69588,19 +69594,19 @@
       <c r="AA548" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB548" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC548" s="68" t="n">
+      <c r="AB548" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC548" s="69" t="n">
         <v>3</v>
       </c>
       <c r="AD548" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AE548" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF548" s="68" t="n">
+      <c r="AE548" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF548" s="69" t="n">
         <v>1</v>
       </c>
       <c r="AG548" s="12" t="n">
@@ -69626,29 +69632,28 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="55" t="n">
+      <c r="A549" s="56" t="n">
         <v>-1</v>
       </c>
-      <c r="B549" s="69" t="n">
-        <f aca="false">+B548+1</f>
-        <v>112150</v>
-      </c>
-      <c r="C549" s="70" t="n">
+      <c r="B549" s="70" t="n">
+        <v>112262</v>
+      </c>
+      <c r="C549" s="71" t="n">
         <v>79</v>
       </c>
-      <c r="D549" s="70" t="s">
+      <c r="D549" s="71" t="s">
         <v>1504</v>
       </c>
-      <c r="E549" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="F549" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G549" s="70" t="s">
+      <c r="E549" s="71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F549" s="71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G549" s="71" t="s">
         <v>1505</v>
       </c>
-      <c r="H549" s="70" t="s">
+      <c r="H549" s="71" t="s">
         <v>468</v>
       </c>
       <c r="I549" s="28" t="s">
@@ -69744,31 +69749,31 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B550" s="71" t="n">
+      <c r="A550" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B550" s="72" t="n">
         <v>112356</v>
       </c>
-      <c r="C550" s="64" t="n">
+      <c r="C550" s="65" t="n">
         <v>184</v>
       </c>
-      <c r="D550" s="66" t="s">
+      <c r="D550" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="E550" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F550" s="66" t="s">
+      <c r="E550" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F550" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="G550" s="66" t="s">
+      <c r="G550" s="67" t="s">
         <v>1506</v>
       </c>
-      <c r="H550" s="72" t="s">
+      <c r="H550" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="I550" s="72" t="s">
+      <c r="I550" s="73" t="s">
         <v>89</v>
       </c>
       <c r="J550" s="16" t="n">
@@ -69777,19 +69782,19 @@
       <c r="K550" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="L550" s="70" t="s">
+      <c r="L550" s="71" t="s">
         <v>419</v>
       </c>
-      <c r="M550" s="70" t="n">
+      <c r="M550" s="71" t="n">
         <v>45</v>
       </c>
-      <c r="N550" s="70" t="n">
+      <c r="N550" s="71" t="n">
         <v>1807220749</v>
       </c>
-      <c r="O550" s="70" t="n">
+      <c r="O550" s="71" t="n">
         <v>1230155</v>
       </c>
-      <c r="Q550" s="67" t="n">
+      <c r="Q550" s="68" t="n">
         <v>1</v>
       </c>
       <c r="R550" s="7" t="n">
@@ -69822,19 +69827,19 @@
       <c r="AA550" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB550" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC550" s="68" t="n">
+      <c r="AB550" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC550" s="69" t="n">
         <v>3</v>
       </c>
       <c r="AD550" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AE550" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF550" s="68" t="n">
+      <c r="AE550" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF550" s="69" t="n">
         <v>1</v>
       </c>
       <c r="AG550" s="12" t="n">
@@ -69860,25 +69865,25 @@
       </c>
     </row>
     <row r="551" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B551" s="66" t="n">
+      <c r="A551" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B551" s="67" t="n">
         <v>112221</v>
       </c>
-      <c r="C551" s="65" t="n">
+      <c r="C551" s="66" t="n">
         <v>189</v>
       </c>
-      <c r="D551" s="66" t="s">
+      <c r="D551" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="E551" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="F551" s="66" t="s">
+      <c r="E551" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F551" s="67" t="s">
         <v>816</v>
       </c>
-      <c r="G551" s="73" t="s">
+      <c r="G551" s="74" t="s">
         <v>1507</v>
       </c>
       <c r="H551" s="31" t="s">
@@ -69906,7 +69911,7 @@
         <v>1509</v>
       </c>
       <c r="P551" s="18"/>
-      <c r="Q551" s="67" t="n">
+      <c r="Q551" s="68" t="n">
         <v>1</v>
       </c>
       <c r="R551" s="7" t="n">
@@ -69939,19 +69944,19 @@
       <c r="AA551" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AB551" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC551" s="68" t="n">
+      <c r="AB551" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC551" s="69" t="n">
         <v>3</v>
       </c>
       <c r="AD551" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AE551" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF551" s="68" t="n">
+      <c r="AE551" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF551" s="69" t="n">
         <v>1</v>
       </c>
       <c r="AG551" s="12" t="n">
